--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9893254948261193</v>
+      </c>
+      <c r="D2">
+        <v>1.010229827506348</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9985094290626296</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.041602776182458</v>
+      </c>
+      <c r="J2">
+        <v>1.011830234488504</v>
+      </c>
+      <c r="K2">
+        <v>1.02154846080336</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>1.009989569040837</v>
+      </c>
+      <c r="N2">
+        <v>1.013267149480028</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9974789680041038</v>
+      </c>
+      <c r="D3">
+        <v>1.016536828108462</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>1.006930887501055</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.044557675479229</v>
+      </c>
+      <c r="J3">
+        <v>1.018038595627657</v>
+      </c>
+      <c r="K3">
+        <v>1.026962400736943</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.017475847825988</v>
+      </c>
+      <c r="N3">
+        <v>1.019484327204107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.002570152671308</v>
+      </c>
+      <c r="D4">
+        <v>1.020476658707196</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>1.012195702328396</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.046386221046408</v>
+      </c>
+      <c r="J4">
+        <v>1.021908341396688</v>
+      </c>
+      <c r="K4">
+        <v>1.03033407375248</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.022149131005462</v>
+      </c>
+      <c r="N4">
+        <v>1.023359568455997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.004669087355804</v>
+      </c>
+      <c r="D5">
+        <v>1.022101182917212</v>
+      </c>
       <c r="E5">
         <v>0.9612062874769892</v>
       </c>
+      <c r="F5">
+        <v>1.014367701604995</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.047136028567942</v>
+      </c>
+      <c r="J5">
+        <v>1.023502004369433</v>
+      </c>
+      <c r="K5">
+        <v>1.031721885771943</v>
       </c>
       <c r="L5">
         <v>0.9715596031702913</v>
+      </c>
+      <c r="M5">
+        <v>1.024075427970949</v>
+      </c>
+      <c r="N5">
+        <v>1.024955494612958</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.005019156528999</v>
+      </c>
+      <c r="D6">
+        <v>1.0223721393475</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017086</v>
       </c>
+      <c r="F6">
+        <v>1.014730043238105</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.04726084464759</v>
+      </c>
+      <c r="J6">
+        <v>1.023767699817216</v>
+      </c>
+      <c r="K6">
+        <v>1.031953217710206</v>
       </c>
       <c r="L6">
         <v>0.9717150950965047</v>
+      </c>
+      <c r="M6">
+        <v>1.024396682189173</v>
+      </c>
+      <c r="N6">
+        <v>1.025221567378753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.002598357905401</v>
+      </c>
+      <c r="D7">
+        <v>1.020498488020923</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691361</v>
+      </c>
+      <c r="F7">
+        <v>1.012224883557185</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.046396312989373</v>
+      </c>
+      <c r="J7">
+        <v>1.021929763708332</v>
+      </c>
+      <c r="K7">
+        <v>1.030352731923362</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290571</v>
+      </c>
+      <c r="M7">
+        <v>1.022175017792677</v>
+      </c>
+      <c r="N7">
+        <v>1.02338102118978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9921210166073655</v>
+      </c>
+      <c r="D8">
+        <v>1.012391834819045</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
+      </c>
+      <c r="F8">
+        <v>1.00139548115093</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.042619360810005</v>
+      </c>
+      <c r="J8">
+        <v>1.013960266561106</v>
+      </c>
+      <c r="K8">
+        <v>1.023406526834345</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>1.012556582880535</v>
+      </c>
+      <c r="N8">
+        <v>1.015400206442491</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9721010650341909</v>
+      </c>
+      <c r="D9">
+        <v>0.9969220708948937</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419923924</v>
+      </c>
+      <c r="F9">
+        <v>0.9807560932390637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.035270059627967</v>
+      </c>
+      <c r="J9">
+        <v>0.9986789886018144</v>
+      </c>
+      <c r="K9">
+        <v>1.010065283523912</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208832517</v>
+      </c>
+      <c r="M9">
+        <v>0.9941693013429383</v>
+      </c>
+      <c r="N9">
+        <v>1.00009722731571</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9574742048428609</v>
+      </c>
+      <c r="D10">
+        <v>0.9856449220843623</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
+      </c>
+      <c r="F10">
+        <v>0.9657157138043223</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.029815530579651</v>
+      </c>
+      <c r="J10">
+        <v>0.9874829119372033</v>
+      </c>
+      <c r="K10">
+        <v>1.000278290904747</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
+      </c>
+      <c r="M10">
+        <v>0.9807328578274198</v>
+      </c>
+      <c r="N10">
+        <v>0.9888852509380274</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9507728873661838</v>
+      </c>
+      <c r="D11">
+        <v>0.9804873177103979</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
+      </c>
+      <c r="F11">
+        <v>0.9588349071559075</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.0272977661335</v>
+      </c>
+      <c r="J11">
+        <v>0.9823473236019787</v>
+      </c>
+      <c r="K11">
+        <v>0.9957868410481466</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>0.9745772570321908</v>
+      </c>
+      <c r="N11">
+        <v>0.9837423694783064</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9482218572132679</v>
+      </c>
+      <c r="D12">
+        <v>0.9785256005729964</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
+      </c>
+      <c r="F12">
+        <v>0.9562171135671815</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.026336638060465</v>
+      </c>
+      <c r="J12">
+        <v>0.9803915509402583</v>
+      </c>
+      <c r="K12">
+        <v>0.9940761139074722</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
+      </c>
+      <c r="M12">
+        <v>0.9722341071804926</v>
+      </c>
+      <c r="N12">
+        <v>0.9817838193950761</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9487719798886229</v>
+      </c>
+      <c r="D13">
+        <v>0.9789485594462074</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.9567815619247432</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.026544020851655</v>
+      </c>
+      <c r="J13">
+        <v>0.9808133406283989</v>
+      </c>
+      <c r="K13">
+        <v>0.9944450666027582</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
+      </c>
+      <c r="M13">
+        <v>0.9727393931802762</v>
+      </c>
+      <c r="N13">
+        <v>0.9822062080729537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9505633226888811</v>
+      </c>
+      <c r="D14">
+        <v>0.980326129087559</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
+      </c>
+      <c r="F14">
+        <v>0.9586198258654306</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.027218863649831</v>
+      </c>
+      <c r="J14">
+        <v>0.9821866736416762</v>
+      </c>
+      <c r="K14">
+        <v>0.9956463243020733</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>0.9743847661432012</v>
+      </c>
+      <c r="N14">
+        <v>0.9835814913766335</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9516586137076829</v>
+      </c>
+      <c r="D15">
+        <v>0.9811686515107363</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050717474</v>
+      </c>
+      <c r="F15">
+        <v>0.9597440133127001</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.027631140357489</v>
+      </c>
+      <c r="J15">
+        <v>0.9830262809302649</v>
+      </c>
+      <c r="K15">
+        <v>0.9963806989724984</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.975390827114712</v>
+      </c>
+      <c r="N15">
+        <v>0.9844222910038763</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9579106616274541</v>
+      </c>
+      <c r="D16">
+        <v>0.9859810470892908</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
+      </c>
+      <c r="F16">
+        <v>0.9661640712364746</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.029979137845029</v>
+      </c>
+      <c r="J16">
+        <v>0.9878172784326495</v>
+      </c>
+      <c r="K16">
+        <v>1.000570679410155</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9519451749175714</v>
+      </c>
+      <c r="M16">
+        <v>0.9811337860376715</v>
+      </c>
+      <c r="N16">
+        <v>0.9892200922722495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9617296141057243</v>
+      </c>
+      <c r="D17">
+        <v>0.9889231511324518</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
+      </c>
+      <c r="F17">
+        <v>0.970088277078511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.031408597008789</v>
+      </c>
+      <c r="J17">
+        <v>0.990742283065268</v>
+      </c>
+      <c r="K17">
+        <v>1.003128225708704</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9534603602068051</v>
+      </c>
+      <c r="M17">
+        <v>0.984641913010762</v>
+      </c>
+      <c r="N17">
+        <v>0.9921492507469492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9639221586973846</v>
+      </c>
+      <c r="D18">
+        <v>0.9906130992592193</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215686</v>
+      </c>
+      <c r="F18">
+        <v>0.972342174475974</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.032227521263345</v>
+      </c>
+      <c r="J18">
+        <v>0.9924210150382862</v>
+      </c>
+      <c r="K18">
+        <v>1.004595854214587</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0.9866560298221583</v>
+      </c>
+      <c r="N18">
+        <v>0.993830366711922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9646640083999233</v>
+      </c>
+      <c r="D19">
+        <v>0.9911850261259606</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
+      </c>
+      <c r="F19">
+        <v>0.9731049379775828</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.032504302712551</v>
+      </c>
+      <c r="J19">
+        <v>0.9929889140466984</v>
+      </c>
+      <c r="K19">
+        <v>1.005092301358025</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816589</v>
+      </c>
+      <c r="M19">
+        <v>0.9873375099260953</v>
+      </c>
+      <c r="N19">
+        <v>0.9943990722020652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9613235395770837</v>
+      </c>
+      <c r="D20">
+        <v>0.9886102256472595</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
+      </c>
+      <c r="F20">
+        <v>0.9696709141613693</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.031256782800585</v>
+      </c>
+      <c r="J20">
+        <v>0.990431322452171</v>
+      </c>
+      <c r="K20">
+        <v>1.002856351413208</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9532985019057445</v>
+      </c>
+      <c r="M20">
+        <v>0.9842688859019346</v>
+      </c>
+      <c r="N20">
+        <v>0.9918378485341138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9500375833956061</v>
+      </c>
+      <c r="D21">
+        <v>0.9799217795416324</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.9580802722777215</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.027020876896494</v>
+      </c>
+      <c r="J21">
+        <v>0.9817836357348759</v>
+      </c>
+      <c r="K21">
+        <v>0.9952937925948298</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9488714019981064</v>
+      </c>
+      <c r="M21">
+        <v>0.9739018627829356</v>
+      </c>
+      <c r="N21">
+        <v>0.9831778811097764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9425795701716478</v>
+      </c>
+      <c r="D22">
+        <v>0.9741901788953331</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651159</v>
+      </c>
+      <c r="F22">
+        <v>0.9504301359852277</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.024206072660961</v>
+      </c>
+      <c r="J22">
+        <v>0.9760645673887953</v>
+      </c>
+      <c r="K22">
+        <v>0.9902908787946142</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572513</v>
+      </c>
+      <c r="M22">
+        <v>0.9670519727479866</v>
+      </c>
+      <c r="N22">
+        <v>0.9774506910306578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9465700469884818</v>
+      </c>
+      <c r="D23">
+        <v>0.9772558839279205</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963312</v>
+      </c>
+      <c r="F23">
+        <v>0.9545225236415931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.025713565832096</v>
+      </c>
+      <c r="J23">
+        <v>0.9791249737850619</v>
+      </c>
+      <c r="K23">
+        <v>0.9929681668998694</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285315</v>
+      </c>
+      <c r="M23">
+        <v>0.9707169526213754</v>
+      </c>
+      <c r="N23">
+        <v>0.9805154435550409</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9615071348080745</v>
+      </c>
+      <c r="D24">
+        <v>0.9887517036117225</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011821</v>
+      </c>
+      <c r="F24">
+        <v>0.9698596102499445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.031325426829591</v>
+      </c>
+      <c r="J24">
+        <v>0.9905719163950988</v>
+      </c>
+      <c r="K24">
+        <v>1.00297927400352</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442539</v>
+      </c>
+      <c r="M24">
+        <v>0.9844375395990471</v>
+      </c>
+      <c r="N24">
+        <v>0.9919786421365667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9774832462526321</v>
+      </c>
+      <c r="D25">
+        <v>1.001077586332083</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>0.9862984191531086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.037260606362004</v>
+      </c>
+      <c r="J25">
+        <v>1.00279289883271</v>
+      </c>
+      <c r="K25">
+        <v>1.013659197160751</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>0.9991132247813929</v>
+      </c>
+      <c r="N25">
+        <v>1.004216979771005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9893254948261193</v>
+        <v>1.016731294731067</v>
       </c>
       <c r="D2">
-        <v>1.010229827506348</v>
+        <v>1.037886938577139</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.033405304981486</v>
       </c>
       <c r="F2">
-        <v>0.9985094290626296</v>
+        <v>1.043947501306847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041602776182458</v>
+        <v>1.056276660757755</v>
       </c>
       <c r="J2">
-        <v>1.011830234488504</v>
+        <v>1.03842283768382</v>
       </c>
       <c r="K2">
-        <v>1.02154846080336</v>
+        <v>1.048842524430698</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.044418070390818</v>
       </c>
       <c r="M2">
-        <v>1.009989569040837</v>
+        <v>1.054826736150506</v>
       </c>
       <c r="N2">
-        <v>1.013267149480028</v>
+        <v>1.016657492696907</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974789680041038</v>
+        <v>1.020403597204839</v>
       </c>
       <c r="D3">
-        <v>1.016536828108462</v>
+        <v>1.040772673424742</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.036965608899086</v>
       </c>
       <c r="F3">
-        <v>1.006930887501055</v>
+        <v>1.047413161896073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044557675479229</v>
+        <v>1.057520172709148</v>
       </c>
       <c r="J3">
-        <v>1.018038595627657</v>
+        <v>1.040353082157983</v>
       </c>
       <c r="K3">
-        <v>1.026962400736943</v>
+        <v>1.050909143042698</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.047146384991998</v>
       </c>
       <c r="M3">
-        <v>1.017475847825988</v>
+        <v>1.057473300913406</v>
       </c>
       <c r="N3">
-        <v>1.019484327204107</v>
+        <v>1.017300795372423</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002570152671308</v>
+        <v>1.022736900067674</v>
       </c>
       <c r="D4">
-        <v>1.020476658707196</v>
+        <v>1.042608531766814</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.039236190510649</v>
       </c>
       <c r="F4">
-        <v>1.012195702328396</v>
+        <v>1.049620780182773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046386221046408</v>
+        <v>1.058300766116088</v>
       </c>
       <c r="J4">
-        <v>1.021908341396688</v>
+        <v>1.04157634897701</v>
       </c>
       <c r="K4">
-        <v>1.03033407375248</v>
+        <v>1.052218531612477</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.04888305412335</v>
       </c>
       <c r="M4">
-        <v>1.022149131005462</v>
+        <v>1.05915505690468</v>
       </c>
       <c r="N4">
-        <v>1.023359568455997</v>
+        <v>1.017708466266269</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004669087355804</v>
+        <v>1.023707840690721</v>
       </c>
       <c r="D5">
-        <v>1.022101182917212</v>
+        <v>1.043372998393953</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.040183036711535</v>
       </c>
       <c r="F5">
-        <v>1.014367701604995</v>
+        <v>1.050540741920048</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047136028567942</v>
+        <v>1.058623275065622</v>
       </c>
       <c r="J5">
-        <v>1.023502004369433</v>
+        <v>1.042084594469141</v>
       </c>
       <c r="K5">
-        <v>1.031721885771943</v>
+        <v>1.052762481270596</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.049606455493606</v>
       </c>
       <c r="M5">
-        <v>1.024075427970949</v>
+        <v>1.059854890301522</v>
       </c>
       <c r="N5">
-        <v>1.024955494612958</v>
+        <v>1.017877841430084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005019156528999</v>
+        <v>1.02387028904365</v>
       </c>
       <c r="D6">
-        <v>1.0223721393475</v>
+        <v>1.043500931366701</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.040341571132984</v>
       </c>
       <c r="F6">
-        <v>1.014730043238105</v>
+        <v>1.050694737937793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04726084464759</v>
+        <v>1.058677097189457</v>
       </c>
       <c r="J6">
-        <v>1.023767699817216</v>
+        <v>1.042169582428055</v>
       </c>
       <c r="K6">
-        <v>1.031953217710206</v>
+        <v>1.052853434896535</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.049727530436895</v>
       </c>
       <c r="M6">
-        <v>1.024396682189173</v>
+        <v>1.059971979783084</v>
       </c>
       <c r="N6">
-        <v>1.025221567378753</v>
+        <v>1.017906163733926</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002598357905401</v>
+        <v>1.022749912654144</v>
       </c>
       <c r="D7">
-        <v>1.020498488020923</v>
+        <v>1.042618775154728</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.039248872290243</v>
       </c>
       <c r="F7">
-        <v>1.012224883557185</v>
+        <v>1.049633104363233</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046396312989373</v>
+        <v>1.058305097572807</v>
       </c>
       <c r="J7">
-        <v>1.021929763708332</v>
+        <v>1.041583163629254</v>
       </c>
       <c r="K7">
-        <v>1.030352731923362</v>
+        <v>1.052225825307269</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.048892746312182</v>
       </c>
       <c r="M7">
-        <v>1.022175017792677</v>
+        <v>1.059164436072953</v>
       </c>
       <c r="N7">
-        <v>1.02338102118978</v>
+        <v>1.017710737301689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9921210166073655</v>
+        <v>1.017981435934131</v>
       </c>
       <c r="D8">
-        <v>1.012391834819045</v>
+        <v>1.038868805747039</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.034615539678025</v>
       </c>
       <c r="F8">
-        <v>1.00139548115093</v>
+        <v>1.045126106226193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042619360810005</v>
+        <v>1.056701953037461</v>
       </c>
       <c r="J8">
-        <v>1.013960266561106</v>
+        <v>1.039080589131667</v>
       </c>
       <c r="K8">
-        <v>1.023406526834345</v>
+        <v>1.049546807371404</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.045346179720605</v>
       </c>
       <c r="M8">
-        <v>1.012556582880535</v>
+        <v>1.055727635135294</v>
       </c>
       <c r="N8">
-        <v>1.015400206442491</v>
+        <v>1.016876706889579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9721010650341909</v>
+        <v>1.009236124151629</v>
       </c>
       <c r="D9">
-        <v>0.9969220708948937</v>
+        <v>1.032011429711102</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.026185922890331</v>
       </c>
       <c r="F9">
-        <v>0.9807560932390637</v>
+        <v>1.036906008756052</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035270059627967</v>
+        <v>1.05368801304348</v>
       </c>
       <c r="J9">
-        <v>0.9986789886018144</v>
+        <v>1.034466894473043</v>
       </c>
       <c r="K9">
-        <v>1.010065283523912</v>
+        <v>1.04460564867058</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.038867972339434</v>
       </c>
       <c r="M9">
-        <v>0.9941693013429383</v>
+        <v>1.049427402211442</v>
       </c>
       <c r="N9">
-        <v>1.00009722731571</v>
+        <v>1.015339067754334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9574742048428609</v>
+        <v>1.003155106636344</v>
       </c>
       <c r="D10">
-        <v>0.9856449220843623</v>
+        <v>1.02725905525687</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.020371822127067</v>
       </c>
       <c r="F10">
-        <v>0.9657157138043223</v>
+        <v>1.03122290767939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029815530579651</v>
+        <v>1.051544498698978</v>
       </c>
       <c r="J10">
-        <v>0.9874829119372033</v>
+        <v>1.031244100845542</v>
       </c>
       <c r="K10">
-        <v>1.000278290904747</v>
+        <v>1.041152983985095</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.03438274736514</v>
       </c>
       <c r="M10">
-        <v>0.9807328578274198</v>
+        <v>1.045050413484844</v>
       </c>
       <c r="N10">
-        <v>0.9888852509380274</v>
+        <v>1.01426505736564</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9507728873661838</v>
+        <v>1.000457612420459</v>
       </c>
       <c r="D11">
-        <v>0.9804873177103979</v>
+        <v>1.025155247546355</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>1.017804343290558</v>
       </c>
       <c r="F11">
-        <v>0.9588349071559075</v>
+        <v>1.028710120345891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0272977661335</v>
+        <v>1.050582795613808</v>
       </c>
       <c r="J11">
-        <v>0.9823473236019787</v>
+        <v>1.029811366564537</v>
       </c>
       <c r="K11">
-        <v>0.9957868410481466</v>
+        <v>1.03961786915566</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.032398129246035</v>
       </c>
       <c r="M11">
-        <v>0.9745772570321908</v>
+        <v>1.043110182542409</v>
       </c>
       <c r="N11">
-        <v>0.9837423694783064</v>
+        <v>1.013787631333755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9482218572132679</v>
+        <v>0.9994455312986165</v>
       </c>
       <c r="D12">
-        <v>0.9785256005729964</v>
+        <v>1.024366609252211</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>1.016842821490197</v>
       </c>
       <c r="F12">
-        <v>0.9562171135671815</v>
+        <v>1.027768610138769</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026336638060465</v>
+        <v>1.050220381728267</v>
       </c>
       <c r="J12">
-        <v>0.9803915509402583</v>
+        <v>1.029273375787343</v>
       </c>
       <c r="K12">
-        <v>0.9940761139074722</v>
+        <v>1.03904141321292</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.031654300376195</v>
       </c>
       <c r="M12">
-        <v>0.9722341071804926</v>
+        <v>1.042382467264784</v>
       </c>
       <c r="N12">
-        <v>0.9817838193950761</v>
+        <v>1.013608365880569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9487719798886229</v>
+        <v>0.9996630910548158</v>
       </c>
       <c r="D13">
-        <v>0.9789485594462074</v>
+        <v>1.024536104883675</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.017049431941269</v>
       </c>
       <c r="F13">
-        <v>0.9567815619247432</v>
+        <v>1.027970941726291</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026544020851655</v>
+        <v>1.050298358376335</v>
       </c>
       <c r="J13">
-        <v>0.9808133406283989</v>
+        <v>1.029389043095279</v>
       </c>
       <c r="K13">
-        <v>0.9944450666027582</v>
+        <v>1.039165351330231</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.031814159770636</v>
       </c>
       <c r="M13">
-        <v>0.9727393931802762</v>
+        <v>1.042538887175448</v>
       </c>
       <c r="N13">
-        <v>0.9822062080729537</v>
+        <v>1.013646907338882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9505633226888811</v>
+        <v>1.000374162387824</v>
       </c>
       <c r="D14">
-        <v>0.980326129087559</v>
+        <v>1.025090206811871</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.017725025702571</v>
       </c>
       <c r="F14">
-        <v>0.9586198258654306</v>
+        <v>1.028632463097341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027218863649831</v>
+        <v>1.050552945259401</v>
       </c>
       <c r="J14">
-        <v>0.9821866736416762</v>
+        <v>1.029767015870222</v>
       </c>
       <c r="K14">
-        <v>0.9956463243020733</v>
+        <v>1.039570347876296</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.032336781459059</v>
       </c>
       <c r="M14">
-        <v>0.9743847661432012</v>
+        <v>1.043050174342875</v>
       </c>
       <c r="N14">
-        <v>0.9835814913766335</v>
+        <v>1.013772852944126</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9516586137076829</v>
+        <v>1.000810923421238</v>
       </c>
       <c r="D15">
-        <v>0.9811686515107363</v>
+        <v>1.025430645875565</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>1.018140231080388</v>
       </c>
       <c r="F15">
-        <v>0.9597440133127001</v>
+        <v>1.029038957885668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027631140357489</v>
+        <v>1.050709111548743</v>
       </c>
       <c r="J15">
-        <v>0.9830262809302649</v>
+        <v>1.02999912095673</v>
       </c>
       <c r="K15">
-        <v>0.9963806989724984</v>
+        <v>1.039819045086332</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.032657895972146</v>
       </c>
       <c r="M15">
-        <v>0.975390827114712</v>
+        <v>1.043364255713514</v>
       </c>
       <c r="N15">
-        <v>0.9844222910038763</v>
+        <v>1.01385019454787</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9579106616274541</v>
+        <v>1.003332737150896</v>
       </c>
       <c r="D16">
-        <v>0.9859810470892908</v>
+        <v>1.027397685378279</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>1.020541136244551</v>
       </c>
       <c r="F16">
-        <v>0.9661640712364746</v>
+        <v>1.031388549461967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029979137845029</v>
+        <v>1.051607603975471</v>
       </c>
       <c r="J16">
-        <v>0.9878172784326495</v>
+        <v>1.031338384021511</v>
       </c>
       <c r="K16">
-        <v>1.000570679410155</v>
+        <v>1.041254001117446</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>1.034513542054911</v>
       </c>
       <c r="M16">
-        <v>0.9811337860376715</v>
+        <v>1.045178209998262</v>
       </c>
       <c r="N16">
-        <v>0.9892200922722495</v>
+        <v>1.014296476053999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9617296141057243</v>
+        <v>1.004897066567561</v>
       </c>
       <c r="D17">
-        <v>0.9889231511324518</v>
+        <v>1.028619049425016</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>1.02203355462398</v>
       </c>
       <c r="F17">
-        <v>0.970088277078511</v>
+        <v>1.032848237568307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031408597008789</v>
+        <v>1.052162116626969</v>
       </c>
       <c r="J17">
-        <v>0.990742283065268</v>
+        <v>1.032168349798222</v>
       </c>
       <c r="K17">
-        <v>1.003128225708704</v>
+        <v>1.042143224626954</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.03566597872716</v>
       </c>
       <c r="M17">
-        <v>0.984641913010762</v>
+        <v>1.046303829800475</v>
       </c>
       <c r="N17">
-        <v>0.9921492507469492</v>
+        <v>1.014573056439431</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9639221586973846</v>
+        <v>1.005803333356261</v>
       </c>
       <c r="D18">
-        <v>0.9906130992592193</v>
+        <v>1.02932703191089</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>1.022899263167833</v>
       </c>
       <c r="F18">
-        <v>0.972342174475974</v>
+        <v>1.033694658883237</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032227521263345</v>
+        <v>1.05248232853059</v>
       </c>
       <c r="J18">
-        <v>0.9924210150382862</v>
+        <v>1.032648876418145</v>
       </c>
       <c r="K18">
-        <v>1.004595854214587</v>
+        <v>1.042658041422476</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.036334095238663</v>
       </c>
       <c r="M18">
-        <v>0.9866560298221583</v>
+        <v>1.046956065312639</v>
       </c>
       <c r="N18">
-        <v>0.993830366711922</v>
+        <v>1.014733192220357</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9646640083999233</v>
+        <v>1.006111311624014</v>
       </c>
       <c r="D19">
-        <v>0.9911850261259606</v>
+        <v>1.029567694438692</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>1.02319364443125</v>
       </c>
       <c r="F19">
-        <v>0.9731049379775828</v>
+        <v>1.033982430355238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032504302712551</v>
+        <v>1.052590969887958</v>
       </c>
       <c r="J19">
-        <v>0.9929889140466984</v>
+        <v>1.032812122930264</v>
       </c>
       <c r="K19">
-        <v>1.005092301358025</v>
+        <v>1.0428329338166</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>1.036561221586431</v>
       </c>
       <c r="M19">
-        <v>0.9873375099260953</v>
+        <v>1.047177736115247</v>
       </c>
       <c r="N19">
-        <v>0.9943990722020652</v>
+        <v>1.014787594771683</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9613235395770837</v>
+        <v>1.004729871165074</v>
       </c>
       <c r="D20">
-        <v>0.9886102256472595</v>
+        <v>1.028488467622306</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>1.02187393053297</v>
       </c>
       <c r="F20">
-        <v>0.9696709141613693</v>
+        <v>1.032692145406204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031256782800585</v>
+        <v>1.052102957431089</v>
       </c>
       <c r="J20">
-        <v>0.990431322452171</v>
+        <v>1.03207967396311</v>
       </c>
       <c r="K20">
-        <v>1.002856351413208</v>
+        <v>1.042048219388684</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>1.035542757131646</v>
       </c>
       <c r="M20">
-        <v>0.9842688859019346</v>
+        <v>1.046183510148146</v>
       </c>
       <c r="N20">
-        <v>0.9918378485341138</v>
+        <v>1.014543505441908</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9500375833956061</v>
+        <v>1.000165052396467</v>
       </c>
       <c r="D21">
-        <v>0.9799217795416324</v>
+        <v>1.024927238418094</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.017526299614115</v>
       </c>
       <c r="F21">
-        <v>0.9580802722777215</v>
+        <v>1.028437889332527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027020876896494</v>
+        <v>1.050478120446361</v>
       </c>
       <c r="J21">
-        <v>0.9817836357348759</v>
+        <v>1.029655874457834</v>
       </c>
       <c r="K21">
-        <v>0.9952937925948298</v>
+        <v>1.03945126076021</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.032183068305689</v>
       </c>
       <c r="M21">
-        <v>0.9739018627829356</v>
+        <v>1.042899809252559</v>
       </c>
       <c r="N21">
-        <v>0.9831778811097764</v>
+        <v>1.013735818905835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9425795701716478</v>
+        <v>0.9972362301766667</v>
       </c>
       <c r="D22">
-        <v>0.9741901788953331</v>
+        <v>1.022646401017099</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>1.014747194257565</v>
       </c>
       <c r="F22">
-        <v>0.9504301359852277</v>
+        <v>1.025715738813114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024206072660961</v>
+        <v>1.04942638408792</v>
       </c>
       <c r="J22">
-        <v>0.9760645673887953</v>
+        <v>1.028098208893077</v>
       </c>
       <c r="K22">
-        <v>0.9902908787946142</v>
+        <v>1.037782193144421</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>1.030032059972374</v>
       </c>
       <c r="M22">
-        <v>0.9670519727479866</v>
+        <v>1.040794414188483</v>
       </c>
       <c r="N22">
-        <v>0.9774506910306578</v>
+        <v>1.013216801335634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9465700469884818</v>
+        <v>0.9987945757023254</v>
       </c>
       <c r="D23">
-        <v>0.9772558839279205</v>
+        <v>1.023859570983176</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>1.016224890349734</v>
       </c>
       <c r="F23">
-        <v>0.9545225236415931</v>
+        <v>1.027163407624011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025713565832096</v>
+        <v>1.049986839908518</v>
       </c>
       <c r="J23">
-        <v>0.9791249737850619</v>
+        <v>1.028927228402017</v>
       </c>
       <c r="K23">
-        <v>0.9929681668998694</v>
+        <v>1.03867051192661</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>1.03117610673863</v>
       </c>
       <c r="M23">
-        <v>0.9707169526213754</v>
+        <v>1.041914486026427</v>
       </c>
       <c r="N23">
-        <v>0.9805154435550409</v>
+        <v>1.013493027516719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9615071348080745</v>
+        <v>1.004805438637395</v>
       </c>
       <c r="D24">
-        <v>0.9887517036117225</v>
+        <v>1.028547485552863</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>1.021946072578922</v>
       </c>
       <c r="F24">
-        <v>0.9698596102499445</v>
+        <v>1.032762692131981</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031325426829591</v>
+        <v>1.052129698883274</v>
       </c>
       <c r="J24">
-        <v>0.9905719163950988</v>
+        <v>1.032119753798981</v>
       </c>
       <c r="K24">
-        <v>1.00297927400352</v>
+        <v>1.042091160055082</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>1.035598448256888</v>
       </c>
       <c r="M24">
-        <v>0.9844375395990471</v>
+        <v>1.046237890749155</v>
       </c>
       <c r="N24">
-        <v>0.9919786421365667</v>
+        <v>1.014556861934738</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9774832462526321</v>
+        <v>1.01153963923928</v>
       </c>
       <c r="D25">
-        <v>1.001077586332083</v>
+        <v>1.03381509236321</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.028398206788277</v>
       </c>
       <c r="F25">
-        <v>0.9862984191531086</v>
+        <v>1.039065665786678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037260606362004</v>
+        <v>1.054490298284051</v>
       </c>
       <c r="J25">
-        <v>1.00279289883271</v>
+        <v>1.035684793036501</v>
       </c>
       <c r="K25">
-        <v>1.013659197160751</v>
+        <v>1.045910209354038</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.040571110546295</v>
       </c>
       <c r="M25">
-        <v>0.9991132247813929</v>
+        <v>1.051086362435686</v>
       </c>
       <c r="N25">
-        <v>1.004216979771005</v>
+        <v>1.015744960022297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016731294731067</v>
+        <v>1.037576114560824</v>
       </c>
       <c r="D2">
-        <v>1.037886938577139</v>
+        <v>1.048704673305064</v>
       </c>
       <c r="E2">
-        <v>1.033405304981486</v>
+        <v>1.055434095325958</v>
       </c>
       <c r="F2">
-        <v>1.043947501306847</v>
+        <v>1.061749946663601</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056276660757755</v>
+        <v>1.044820647590991</v>
       </c>
       <c r="J2">
-        <v>1.03842283768382</v>
+        <v>1.042678235572573</v>
       </c>
       <c r="K2">
-        <v>1.048842524430698</v>
+        <v>1.051463775017783</v>
       </c>
       <c r="L2">
-        <v>1.044418070390818</v>
+        <v>1.058174564293716</v>
       </c>
       <c r="M2">
-        <v>1.054826736150506</v>
+        <v>1.06447316064288</v>
       </c>
       <c r="N2">
-        <v>1.016657492696907</v>
+        <v>1.018173480693993</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020403597204839</v>
+        <v>1.038351130261965</v>
       </c>
       <c r="D3">
-        <v>1.040772673424742</v>
+        <v>1.049338052024739</v>
       </c>
       <c r="E3">
-        <v>1.036965608899086</v>
+        <v>1.05626950743407</v>
       </c>
       <c r="F3">
-        <v>1.047413161896073</v>
+        <v>1.0625435093216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057520172709148</v>
+        <v>1.045028726524142</v>
       </c>
       <c r="J3">
-        <v>1.040353082157983</v>
+        <v>1.043098564207513</v>
       </c>
       <c r="K3">
-        <v>1.050909143042698</v>
+        <v>1.051909715028511</v>
       </c>
       <c r="L3">
-        <v>1.047146384991998</v>
+        <v>1.05882336086082</v>
       </c>
       <c r="M3">
-        <v>1.057473300913406</v>
+        <v>1.065081458333968</v>
       </c>
       <c r="N3">
-        <v>1.017300795372423</v>
+        <v>1.018313202415649</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022736900067674</v>
+        <v>1.038853159574755</v>
       </c>
       <c r="D4">
-        <v>1.042608531766814</v>
+        <v>1.049748352348916</v>
       </c>
       <c r="E4">
-        <v>1.039236190510649</v>
+        <v>1.056811413666079</v>
       </c>
       <c r="F4">
-        <v>1.049620780182773</v>
+        <v>1.063057974178271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058300766116088</v>
+        <v>1.045162342050538</v>
       </c>
       <c r="J4">
-        <v>1.04157634897701</v>
+        <v>1.043370391676055</v>
       </c>
       <c r="K4">
-        <v>1.052218531612477</v>
+        <v>1.052198038946603</v>
       </c>
       <c r="L4">
-        <v>1.04888305412335</v>
+        <v>1.059243863185372</v>
       </c>
       <c r="M4">
-        <v>1.05915505690468</v>
+        <v>1.065475384308004</v>
       </c>
       <c r="N4">
-        <v>1.017708466266269</v>
+        <v>1.018403543808349</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023707840690721</v>
+        <v>1.039064340720739</v>
       </c>
       <c r="D5">
-        <v>1.043372998393953</v>
+        <v>1.049920951302893</v>
       </c>
       <c r="E5">
-        <v>1.040183036711535</v>
+        <v>1.05703954948522</v>
       </c>
       <c r="F5">
-        <v>1.050540741920048</v>
+        <v>1.063274486970401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058623275065622</v>
+        <v>1.04521826764603</v>
       </c>
       <c r="J5">
-        <v>1.042084594469141</v>
+        <v>1.043484629981328</v>
       </c>
       <c r="K5">
-        <v>1.052762481270596</v>
+        <v>1.052319194070575</v>
       </c>
       <c r="L5">
-        <v>1.049606455493606</v>
+        <v>1.059420805256724</v>
       </c>
       <c r="M5">
-        <v>1.059854890301522</v>
+        <v>1.065641064897633</v>
       </c>
       <c r="N5">
-        <v>1.017877841430084</v>
+        <v>1.01844150662086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02387028904365</v>
+        <v>1.039099806419057</v>
       </c>
       <c r="D6">
-        <v>1.043500931366701</v>
+        <v>1.049949937745772</v>
       </c>
       <c r="E6">
-        <v>1.040341571132984</v>
+        <v>1.057077873106715</v>
       </c>
       <c r="F6">
-        <v>1.050694737937793</v>
+        <v>1.063310853951581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058677097189457</v>
+        <v>1.045227643326812</v>
       </c>
       <c r="J6">
-        <v>1.042169582428055</v>
+        <v>1.043503808832366</v>
       </c>
       <c r="K6">
-        <v>1.052853434896535</v>
+        <v>1.052339533209478</v>
       </c>
       <c r="L6">
-        <v>1.049727530436895</v>
+        <v>1.059450524111562</v>
       </c>
       <c r="M6">
-        <v>1.059971979783084</v>
+        <v>1.065668887693887</v>
       </c>
       <c r="N6">
-        <v>1.017906163733926</v>
+        <v>1.018447879751135</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022749912654144</v>
+        <v>1.03885598088679</v>
       </c>
       <c r="D7">
-        <v>1.042618775154728</v>
+        <v>1.049750658199859</v>
       </c>
       <c r="E7">
-        <v>1.039248872290243</v>
+        <v>1.056814460779396</v>
       </c>
       <c r="F7">
-        <v>1.049633104363233</v>
+        <v>1.063060866324715</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058305097572807</v>
+        <v>1.045163090300246</v>
       </c>
       <c r="J7">
-        <v>1.041583163629254</v>
+        <v>1.043371918284641</v>
       </c>
       <c r="K7">
-        <v>1.052225825307269</v>
+        <v>1.052199658050094</v>
       </c>
       <c r="L7">
-        <v>1.048892746312182</v>
+        <v>1.059246226856074</v>
       </c>
       <c r="M7">
-        <v>1.059164436072953</v>
+        <v>1.065477597851092</v>
       </c>
       <c r="N7">
-        <v>1.017710737301689</v>
+        <v>1.018404051135531</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017981435934131</v>
+        <v>1.037837921362708</v>
       </c>
       <c r="D8">
-        <v>1.038868805747039</v>
+        <v>1.048918629824617</v>
       </c>
       <c r="E8">
-        <v>1.034615539678025</v>
+        <v>1.055716148328684</v>
       </c>
       <c r="F8">
-        <v>1.045126106226193</v>
+        <v>1.062017931391744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056701953037461</v>
+        <v>1.044891180641806</v>
       </c>
       <c r="J8">
-        <v>1.039080589131667</v>
+        <v>1.042820318573448</v>
       </c>
       <c r="K8">
-        <v>1.049546807371404</v>
+        <v>1.0516145291207</v>
       </c>
       <c r="L8">
-        <v>1.045346179720605</v>
+        <v>1.058393684739211</v>
       </c>
       <c r="M8">
-        <v>1.055727635135294</v>
+        <v>1.064678671096472</v>
       </c>
       <c r="N8">
-        <v>1.016876706889579</v>
+        <v>1.018220714092019</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009236124151629</v>
+        <v>1.036048204195047</v>
       </c>
       <c r="D9">
-        <v>1.032011429711102</v>
+        <v>1.04745611101949</v>
       </c>
       <c r="E9">
-        <v>1.026185922890331</v>
+        <v>1.053791125581502</v>
       </c>
       <c r="F9">
-        <v>1.036906008756052</v>
+        <v>1.06018771911094</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05368801304348</v>
+        <v>1.044404226049586</v>
       </c>
       <c r="J9">
-        <v>1.034466894473043</v>
+        <v>1.041847211757882</v>
       </c>
       <c r="K9">
-        <v>1.04460564867058</v>
+        <v>1.050581764858183</v>
       </c>
       <c r="L9">
-        <v>1.038867972339434</v>
+        <v>1.056896738137864</v>
       </c>
       <c r="M9">
-        <v>1.049427402211442</v>
+        <v>1.063273361045808</v>
       </c>
       <c r="N9">
-        <v>1.015339067754334</v>
+        <v>1.017897150733375</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003155106636344</v>
+        <v>1.034858014114535</v>
       </c>
       <c r="D10">
-        <v>1.02725905525687</v>
+        <v>1.046483646307254</v>
       </c>
       <c r="E10">
-        <v>1.020371822127067</v>
+        <v>1.052514854899284</v>
       </c>
       <c r="F10">
-        <v>1.03122290767939</v>
+        <v>1.058972792517313</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051544498698978</v>
+        <v>1.044074387550461</v>
       </c>
       <c r="J10">
-        <v>1.031244100845542</v>
+        <v>1.041197798257598</v>
       </c>
       <c r="K10">
-        <v>1.041152983985095</v>
+        <v>1.049892201516487</v>
       </c>
       <c r="L10">
-        <v>1.03438274736514</v>
+        <v>1.055902467293897</v>
       </c>
       <c r="M10">
-        <v>1.045050413484844</v>
+        <v>1.062338271155341</v>
       </c>
       <c r="N10">
-        <v>1.01426505736564</v>
+        <v>1.017681132611952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000457612420459</v>
+        <v>1.034343372302617</v>
       </c>
       <c r="D11">
-        <v>1.025155247546355</v>
+        <v>1.046063186564389</v>
       </c>
       <c r="E11">
-        <v>1.017804343290558</v>
+        <v>1.051963920429688</v>
       </c>
       <c r="F11">
-        <v>1.028710120345891</v>
+        <v>1.058447978995299</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050582795613808</v>
+        <v>1.04393034099509</v>
       </c>
       <c r="J11">
-        <v>1.029811366564537</v>
+        <v>1.040916450808582</v>
       </c>
       <c r="K11">
-        <v>1.03961786915566</v>
+        <v>1.049593380771425</v>
       </c>
       <c r="L11">
-        <v>1.032398129246035</v>
+        <v>1.055472834745045</v>
       </c>
       <c r="M11">
-        <v>1.043110182542409</v>
+        <v>1.061933811498742</v>
       </c>
       <c r="N11">
-        <v>1.013787631333755</v>
+        <v>1.017587526743305</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9994455312986165</v>
+        <v>1.03415232118313</v>
       </c>
       <c r="D12">
-        <v>1.024366609252211</v>
+        <v>1.045907104768343</v>
       </c>
       <c r="E12">
-        <v>1.016842821490197</v>
+        <v>1.051759536241215</v>
       </c>
       <c r="F12">
-        <v>1.027768610138769</v>
+        <v>1.058253230972667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050220381728267</v>
+        <v>1.043876652626618</v>
       </c>
       <c r="J12">
-        <v>1.029273375787343</v>
+        <v>1.040811925025848</v>
       </c>
       <c r="K12">
-        <v>1.03904141321292</v>
+        <v>1.049482351525294</v>
       </c>
       <c r="L12">
-        <v>1.031654300376195</v>
+        <v>1.055313386051392</v>
       </c>
       <c r="M12">
-        <v>1.042382467264784</v>
+        <v>1.061783645091022</v>
       </c>
       <c r="N12">
-        <v>1.013608365880569</v>
+        <v>1.017552747509799</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9996630910548158</v>
+        <v>1.034193297300189</v>
       </c>
       <c r="D13">
-        <v>1.024536104883675</v>
+        <v>1.045940580482882</v>
       </c>
       <c r="E13">
-        <v>1.017049431941269</v>
+        <v>1.05180336566127</v>
       </c>
       <c r="F13">
-        <v>1.027970941726291</v>
+        <v>1.058294996403347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050298358376335</v>
+        <v>1.04388817723389</v>
       </c>
       <c r="J13">
-        <v>1.029389043095279</v>
+        <v>1.040834347082205</v>
       </c>
       <c r="K13">
-        <v>1.039165351330231</v>
+        <v>1.049506169187326</v>
       </c>
       <c r="L13">
-        <v>1.031814159770636</v>
+        <v>1.055347582156547</v>
       </c>
       <c r="M13">
-        <v>1.042538887175448</v>
+        <v>1.061815853193792</v>
       </c>
       <c r="N13">
-        <v>1.013646907338882</v>
+        <v>1.017560208211627</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000374162387824</v>
+        <v>1.034327577707684</v>
       </c>
       <c r="D14">
-        <v>1.025090206811871</v>
+        <v>1.046050282831521</v>
       </c>
       <c r="E14">
-        <v>1.017725025702571</v>
+        <v>1.051947020705666</v>
       </c>
       <c r="F14">
-        <v>1.028632463097341</v>
+        <v>1.058431877152572</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050552945259401</v>
+        <v>1.043925906827194</v>
       </c>
       <c r="J14">
-        <v>1.029767015870222</v>
+        <v>1.040907811091901</v>
       </c>
       <c r="K14">
-        <v>1.039570347876296</v>
+        <v>1.049584203742922</v>
       </c>
       <c r="L14">
-        <v>1.032336781459059</v>
+        <v>1.055459651882491</v>
       </c>
       <c r="M14">
-        <v>1.043050174342875</v>
+        <v>1.061921397301044</v>
       </c>
       <c r="N14">
-        <v>1.013772852944126</v>
+        <v>1.017584652079214</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000810923421238</v>
+        <v>1.034410326898405</v>
       </c>
       <c r="D15">
-        <v>1.025430645875565</v>
+        <v>1.04611788680479</v>
       </c>
       <c r="E15">
-        <v>1.018140231080388</v>
+        <v>1.05203556549178</v>
       </c>
       <c r="F15">
-        <v>1.029038957885668</v>
+        <v>1.05851623928434</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050709111548743</v>
+        <v>1.043949129043266</v>
       </c>
       <c r="J15">
-        <v>1.02999912095673</v>
+        <v>1.040953071973509</v>
       </c>
       <c r="K15">
-        <v>1.039819045086332</v>
+        <v>1.049632278956591</v>
       </c>
       <c r="L15">
-        <v>1.032657895972146</v>
+        <v>1.055528719808584</v>
       </c>
       <c r="M15">
-        <v>1.043364255713514</v>
+        <v>1.061986435560852</v>
       </c>
       <c r="N15">
-        <v>1.01385019454787</v>
+        <v>1.017599711461824</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003332737150896</v>
+        <v>1.034892184488468</v>
       </c>
       <c r="D16">
-        <v>1.027397685378279</v>
+        <v>1.046511564146075</v>
       </c>
       <c r="E16">
-        <v>1.020541136244551</v>
+        <v>1.052551454586254</v>
       </c>
       <c r="F16">
-        <v>1.031388549461967</v>
+        <v>1.059007649342698</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051607603975471</v>
+        <v>1.044083921725767</v>
       </c>
       <c r="J16">
-        <v>1.031338384021511</v>
+        <v>1.041216467371683</v>
       </c>
       <c r="K16">
-        <v>1.041254001117446</v>
+        <v>1.049912028430446</v>
       </c>
       <c r="L16">
-        <v>1.034513542054911</v>
+        <v>1.055930999561826</v>
       </c>
       <c r="M16">
-        <v>1.045178209998262</v>
+        <v>1.0623651232393</v>
       </c>
       <c r="N16">
-        <v>1.014296476053999</v>
+        <v>1.017687343519177</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004897066567561</v>
+        <v>1.035194634644844</v>
       </c>
       <c r="D17">
-        <v>1.028619049425016</v>
+        <v>1.046758675946451</v>
       </c>
       <c r="E17">
-        <v>1.02203355462398</v>
+        <v>1.052875514598545</v>
       </c>
       <c r="F17">
-        <v>1.032848237568307</v>
+        <v>1.059316236118266</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052162116626969</v>
+        <v>1.044168146448984</v>
       </c>
       <c r="J17">
-        <v>1.032168349798222</v>
+        <v>1.041381649869055</v>
       </c>
       <c r="K17">
-        <v>1.042143224626954</v>
+        <v>1.050087445906304</v>
       </c>
       <c r="L17">
-        <v>1.03566597872716</v>
+        <v>1.056183579422652</v>
       </c>
       <c r="M17">
-        <v>1.046303829800475</v>
+        <v>1.062602783165835</v>
       </c>
       <c r="N17">
-        <v>1.014573056439431</v>
+        <v>1.017742294753022</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005803333356261</v>
+        <v>1.035371117890589</v>
       </c>
       <c r="D18">
-        <v>1.02932703191089</v>
+        <v>1.046902872145657</v>
       </c>
       <c r="E18">
-        <v>1.022899263167833</v>
+        <v>1.053064697122714</v>
       </c>
       <c r="F18">
-        <v>1.033694658883237</v>
+        <v>1.059496350771619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05248232853059</v>
+        <v>1.044217155118325</v>
       </c>
       <c r="J18">
-        <v>1.032648876418145</v>
+        <v>1.041477983743905</v>
       </c>
       <c r="K18">
-        <v>1.042658041422476</v>
+        <v>1.050189741156371</v>
       </c>
       <c r="L18">
-        <v>1.036334095238663</v>
+        <v>1.056330991053608</v>
       </c>
       <c r="M18">
-        <v>1.046956065312639</v>
+        <v>1.062741448558741</v>
       </c>
       <c r="N18">
-        <v>1.014733192220357</v>
+        <v>1.017774340228642</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006111311624014</v>
+        <v>1.035431305795924</v>
       </c>
       <c r="D19">
-        <v>1.029567694438692</v>
+        <v>1.046952049452527</v>
       </c>
       <c r="E19">
-        <v>1.02319364443125</v>
+        <v>1.053129231193493</v>
       </c>
       <c r="F19">
-        <v>1.033982430355238</v>
+        <v>1.059557785707996</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052590969887958</v>
+        <v>1.044233845734967</v>
       </c>
       <c r="J19">
-        <v>1.032812122930264</v>
+        <v>1.041510828644155</v>
       </c>
       <c r="K19">
-        <v>1.0428329338166</v>
+        <v>1.050224617283026</v>
       </c>
       <c r="L19">
-        <v>1.036561221586431</v>
+        <v>1.056381269156025</v>
       </c>
       <c r="M19">
-        <v>1.047177736115247</v>
+        <v>1.062788737009291</v>
       </c>
       <c r="N19">
-        <v>1.014787594771683</v>
+        <v>1.017785265765854</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.004729871165074</v>
+        <v>1.035162177435857</v>
       </c>
       <c r="D20">
-        <v>1.028488467622306</v>
+        <v>1.046732156961921</v>
       </c>
       <c r="E20">
-        <v>1.02187393053297</v>
+        <v>1.052840729068004</v>
       </c>
       <c r="F20">
-        <v>1.032692145406204</v>
+        <v>1.059283115125206</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052102957431089</v>
+        <v>1.044159122151581</v>
       </c>
       <c r="J20">
-        <v>1.03207967396311</v>
+        <v>1.041363928818226</v>
       </c>
       <c r="K20">
-        <v>1.042048219388684</v>
+        <v>1.050068627618838</v>
       </c>
       <c r="L20">
-        <v>1.035542757131646</v>
+        <v>1.056156471078525</v>
       </c>
       <c r="M20">
-        <v>1.046183510148146</v>
+        <v>1.062577280108889</v>
       </c>
       <c r="N20">
-        <v>1.014543505441908</v>
+        <v>1.017736399690143</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000165052396467</v>
+        <v>1.03428803242972</v>
       </c>
       <c r="D21">
-        <v>1.024927238418094</v>
+        <v>1.046017975567483</v>
       </c>
       <c r="E21">
-        <v>1.017526299614115</v>
+        <v>1.051904710752934</v>
       </c>
       <c r="F21">
-        <v>1.028437889332527</v>
+        <v>1.058391563891558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050478120446361</v>
+        <v>1.043914801448788</v>
       </c>
       <c r="J21">
-        <v>1.029655874457834</v>
+        <v>1.040886178336279</v>
       </c>
       <c r="K21">
-        <v>1.03945126076021</v>
+        <v>1.049561225436038</v>
       </c>
       <c r="L21">
-        <v>1.032183068305689</v>
+        <v>1.055426646374067</v>
       </c>
       <c r="M21">
-        <v>1.042899809252559</v>
+        <v>1.061890315303201</v>
       </c>
       <c r="N21">
-        <v>1.013735818905835</v>
+        <v>1.017577454237567</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9972362301766667</v>
+        <v>1.033739058741637</v>
       </c>
       <c r="D22">
-        <v>1.022646401017099</v>
+        <v>1.045569495874184</v>
       </c>
       <c r="E22">
-        <v>1.014747194257565</v>
+        <v>1.051317689198335</v>
       </c>
       <c r="F22">
-        <v>1.025715738813114</v>
+        <v>1.057832116867816</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04942638408792</v>
+        <v>1.043760128607059</v>
       </c>
       <c r="J22">
-        <v>1.028098208893077</v>
+        <v>1.040585677865792</v>
       </c>
       <c r="K22">
-        <v>1.037782193144421</v>
+        <v>1.049242006022301</v>
       </c>
       <c r="L22">
-        <v>1.030032059972374</v>
+        <v>1.054968564133439</v>
       </c>
       <c r="M22">
-        <v>1.040794414188483</v>
+        <v>1.06145878707701</v>
       </c>
       <c r="N22">
-        <v>1.013216801335634</v>
+        <v>1.017477462183795</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9987945757023254</v>
+        <v>1.034030019182927</v>
       </c>
       <c r="D23">
-        <v>1.023859570983176</v>
+        <v>1.045807190238291</v>
       </c>
       <c r="E23">
-        <v>1.016224890349734</v>
+        <v>1.051628738457823</v>
       </c>
       <c r="F23">
-        <v>1.027163407624011</v>
+        <v>1.058128584714304</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049986839908518</v>
+        <v>1.043842223668954</v>
       </c>
       <c r="J23">
-        <v>1.028927228402017</v>
+        <v>1.040744989774186</v>
       </c>
       <c r="K23">
-        <v>1.03867051192661</v>
+        <v>1.049411248329375</v>
       </c>
       <c r="L23">
-        <v>1.03117610673863</v>
+        <v>1.055211326961962</v>
       </c>
       <c r="M23">
-        <v>1.041914486026427</v>
+        <v>1.061687510442544</v>
       </c>
       <c r="N23">
-        <v>1.013493027516719</v>
+        <v>1.017530475088243</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.004805438637395</v>
+        <v>1.035176843237952</v>
       </c>
       <c r="D24">
-        <v>1.028547485552863</v>
+        <v>1.046744139564193</v>
       </c>
       <c r="E24">
-        <v>1.021946072578922</v>
+        <v>1.052856446646091</v>
       </c>
       <c r="F24">
-        <v>1.032762692131981</v>
+        <v>1.05929808070206</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052129698883274</v>
+        <v>1.044163200208417</v>
       </c>
       <c r="J24">
-        <v>1.032119753798981</v>
+        <v>1.041371936242593</v>
       </c>
       <c r="K24">
-        <v>1.042091160055082</v>
+        <v>1.050077130863539</v>
       </c>
       <c r="L24">
-        <v>1.035598448256888</v>
+        <v>1.056168719906654</v>
       </c>
       <c r="M24">
-        <v>1.046237890749155</v>
+        <v>1.062588803711841</v>
       </c>
       <c r="N24">
-        <v>1.014556861934738</v>
+        <v>1.017739063435912</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01153963923928</v>
+        <v>1.036510376118816</v>
       </c>
       <c r="D25">
-        <v>1.03381509236321</v>
+        <v>1.047833766373925</v>
       </c>
       <c r="E25">
-        <v>1.028398206788277</v>
+        <v>1.054287551595205</v>
       </c>
       <c r="F25">
-        <v>1.039065665786678</v>
+        <v>1.060659962743335</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054490298284051</v>
+        <v>1.0445310362231</v>
       </c>
       <c r="J25">
-        <v>1.035684793036501</v>
+        <v>1.042098907827693</v>
       </c>
       <c r="K25">
-        <v>1.045910209354038</v>
+        <v>1.050848951067897</v>
       </c>
       <c r="L25">
-        <v>1.040571110546295</v>
+        <v>1.057283091183278</v>
       </c>
       <c r="M25">
-        <v>1.051086362435686</v>
+        <v>1.063636360492799</v>
       </c>
       <c r="N25">
-        <v>1.015744960022297</v>
+        <v>1.017980856093774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037576114560824</v>
+        <v>1.016731294731067</v>
       </c>
       <c r="D2">
-        <v>1.048704673305064</v>
+        <v>1.03788693857714</v>
       </c>
       <c r="E2">
-        <v>1.055434095325958</v>
+        <v>1.033405304981486</v>
       </c>
       <c r="F2">
-        <v>1.061749946663601</v>
+        <v>1.043947501306847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044820647590991</v>
+        <v>1.056276660757755</v>
       </c>
       <c r="J2">
-        <v>1.042678235572573</v>
+        <v>1.03842283768382</v>
       </c>
       <c r="K2">
-        <v>1.051463775017783</v>
+        <v>1.048842524430698</v>
       </c>
       <c r="L2">
-        <v>1.058174564293716</v>
+        <v>1.044418070390819</v>
       </c>
       <c r="M2">
-        <v>1.06447316064288</v>
+        <v>1.054826736150506</v>
       </c>
       <c r="N2">
-        <v>1.018173480693993</v>
+        <v>1.016657492696907</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038351130261965</v>
+        <v>1.020403597204839</v>
       </c>
       <c r="D3">
-        <v>1.049338052024739</v>
+        <v>1.040772673424742</v>
       </c>
       <c r="E3">
-        <v>1.05626950743407</v>
+        <v>1.036965608899086</v>
       </c>
       <c r="F3">
-        <v>1.0625435093216</v>
+        <v>1.047413161896074</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045028726524142</v>
+        <v>1.057520172709148</v>
       </c>
       <c r="J3">
-        <v>1.043098564207513</v>
+        <v>1.040353082157983</v>
       </c>
       <c r="K3">
-        <v>1.051909715028511</v>
+        <v>1.050909143042698</v>
       </c>
       <c r="L3">
-        <v>1.05882336086082</v>
+        <v>1.047146384991998</v>
       </c>
       <c r="M3">
-        <v>1.065081458333968</v>
+        <v>1.057473300913406</v>
       </c>
       <c r="N3">
-        <v>1.018313202415649</v>
+        <v>1.017300795372423</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038853159574755</v>
+        <v>1.022736900067674</v>
       </c>
       <c r="D4">
-        <v>1.049748352348916</v>
+        <v>1.042608531766814</v>
       </c>
       <c r="E4">
-        <v>1.056811413666079</v>
+        <v>1.039236190510649</v>
       </c>
       <c r="F4">
-        <v>1.063057974178271</v>
+        <v>1.049620780182773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045162342050538</v>
+        <v>1.058300766116088</v>
       </c>
       <c r="J4">
-        <v>1.043370391676055</v>
+        <v>1.04157634897701</v>
       </c>
       <c r="K4">
-        <v>1.052198038946603</v>
+        <v>1.052218531612478</v>
       </c>
       <c r="L4">
-        <v>1.059243863185372</v>
+        <v>1.04888305412335</v>
       </c>
       <c r="M4">
-        <v>1.065475384308004</v>
+        <v>1.05915505690468</v>
       </c>
       <c r="N4">
-        <v>1.018403543808349</v>
+        <v>1.01770846626627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039064340720739</v>
+        <v>1.023707840690721</v>
       </c>
       <c r="D5">
-        <v>1.049920951302893</v>
+        <v>1.043372998393954</v>
       </c>
       <c r="E5">
-        <v>1.05703954948522</v>
+        <v>1.040183036711536</v>
       </c>
       <c r="F5">
-        <v>1.063274486970401</v>
+        <v>1.050540741920049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04521826764603</v>
+        <v>1.058623275065623</v>
       </c>
       <c r="J5">
-        <v>1.043484629981328</v>
+        <v>1.042084594469141</v>
       </c>
       <c r="K5">
-        <v>1.052319194070575</v>
+        <v>1.052762481270597</v>
       </c>
       <c r="L5">
-        <v>1.059420805256724</v>
+        <v>1.049606455493607</v>
       </c>
       <c r="M5">
-        <v>1.065641064897633</v>
+        <v>1.059854890301522</v>
       </c>
       <c r="N5">
-        <v>1.01844150662086</v>
+        <v>1.017877841430084</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039099806419057</v>
+        <v>1.02387028904365</v>
       </c>
       <c r="D6">
-        <v>1.049949937745772</v>
+        <v>1.043500931366701</v>
       </c>
       <c r="E6">
-        <v>1.057077873106715</v>
+        <v>1.040341571132984</v>
       </c>
       <c r="F6">
-        <v>1.063310853951581</v>
+        <v>1.050694737937793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045227643326812</v>
+        <v>1.058677097189457</v>
       </c>
       <c r="J6">
-        <v>1.043503808832366</v>
+        <v>1.042169582428055</v>
       </c>
       <c r="K6">
-        <v>1.052339533209478</v>
+        <v>1.052853434896536</v>
       </c>
       <c r="L6">
-        <v>1.059450524111562</v>
+        <v>1.049727530436896</v>
       </c>
       <c r="M6">
-        <v>1.065668887693887</v>
+        <v>1.059971979783085</v>
       </c>
       <c r="N6">
-        <v>1.018447879751135</v>
+        <v>1.017906163733926</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03885598088679</v>
+        <v>1.022749912654144</v>
       </c>
       <c r="D7">
-        <v>1.049750658199859</v>
+        <v>1.042618775154728</v>
       </c>
       <c r="E7">
-        <v>1.056814460779396</v>
+        <v>1.039248872290243</v>
       </c>
       <c r="F7">
-        <v>1.063060866324715</v>
+        <v>1.049633104363232</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045163090300246</v>
+        <v>1.058305097572807</v>
       </c>
       <c r="J7">
-        <v>1.043371918284641</v>
+        <v>1.041583163629254</v>
       </c>
       <c r="K7">
-        <v>1.052199658050094</v>
+        <v>1.052225825307269</v>
       </c>
       <c r="L7">
-        <v>1.059246226856074</v>
+        <v>1.048892746312181</v>
       </c>
       <c r="M7">
-        <v>1.065477597851092</v>
+        <v>1.059164436072953</v>
       </c>
       <c r="N7">
-        <v>1.018404051135531</v>
+        <v>1.017710737301689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037837921362708</v>
+        <v>1.017981435934131</v>
       </c>
       <c r="D8">
-        <v>1.048918629824617</v>
+        <v>1.038868805747038</v>
       </c>
       <c r="E8">
-        <v>1.055716148328684</v>
+        <v>1.034615539678024</v>
       </c>
       <c r="F8">
-        <v>1.062017931391744</v>
+        <v>1.045126106226192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044891180641806</v>
+        <v>1.05670195303746</v>
       </c>
       <c r="J8">
-        <v>1.042820318573448</v>
+        <v>1.039080589131666</v>
       </c>
       <c r="K8">
-        <v>1.0516145291207</v>
+        <v>1.049546807371403</v>
       </c>
       <c r="L8">
-        <v>1.058393684739211</v>
+        <v>1.045346179720604</v>
       </c>
       <c r="M8">
-        <v>1.064678671096472</v>
+        <v>1.055727635135293</v>
       </c>
       <c r="N8">
-        <v>1.018220714092019</v>
+        <v>1.016876706889579</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036048204195047</v>
+        <v>1.009236124151629</v>
       </c>
       <c r="D9">
-        <v>1.04745611101949</v>
+        <v>1.032011429711102</v>
       </c>
       <c r="E9">
-        <v>1.053791125581502</v>
+        <v>1.026185922890331</v>
       </c>
       <c r="F9">
-        <v>1.06018771911094</v>
+        <v>1.036906008756052</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044404226049586</v>
+        <v>1.05368801304348</v>
       </c>
       <c r="J9">
-        <v>1.041847211757882</v>
+        <v>1.034466894473042</v>
       </c>
       <c r="K9">
-        <v>1.050581764858183</v>
+        <v>1.044605648670579</v>
       </c>
       <c r="L9">
-        <v>1.056896738137864</v>
+        <v>1.038867972339434</v>
       </c>
       <c r="M9">
-        <v>1.063273361045808</v>
+        <v>1.049427402211442</v>
       </c>
       <c r="N9">
-        <v>1.017897150733375</v>
+        <v>1.015339067754334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034858014114535</v>
+        <v>1.003155106636345</v>
       </c>
       <c r="D10">
-        <v>1.046483646307254</v>
+        <v>1.02725905525687</v>
       </c>
       <c r="E10">
-        <v>1.052514854899284</v>
+        <v>1.020371822127067</v>
       </c>
       <c r="F10">
-        <v>1.058972792517313</v>
+        <v>1.031222907679391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044074387550461</v>
+        <v>1.051544498698978</v>
       </c>
       <c r="J10">
-        <v>1.041197798257598</v>
+        <v>1.031244100845542</v>
       </c>
       <c r="K10">
-        <v>1.049892201516487</v>
+        <v>1.041152983985096</v>
       </c>
       <c r="L10">
-        <v>1.055902467293897</v>
+        <v>1.03438274736514</v>
       </c>
       <c r="M10">
-        <v>1.062338271155341</v>
+        <v>1.045050413484845</v>
       </c>
       <c r="N10">
-        <v>1.017681132611952</v>
+        <v>1.01426505736564</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034343372302617</v>
+        <v>1.000457612420459</v>
       </c>
       <c r="D11">
-        <v>1.046063186564389</v>
+        <v>1.025155247546355</v>
       </c>
       <c r="E11">
-        <v>1.051963920429688</v>
+        <v>1.017804343290559</v>
       </c>
       <c r="F11">
-        <v>1.058447978995299</v>
+        <v>1.028710120345891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04393034099509</v>
+        <v>1.050582795613808</v>
       </c>
       <c r="J11">
-        <v>1.040916450808582</v>
+        <v>1.029811366564537</v>
       </c>
       <c r="K11">
-        <v>1.049593380771425</v>
+        <v>1.03961786915566</v>
       </c>
       <c r="L11">
-        <v>1.055472834745045</v>
+        <v>1.032398129246035</v>
       </c>
       <c r="M11">
-        <v>1.061933811498742</v>
+        <v>1.043110182542409</v>
       </c>
       <c r="N11">
-        <v>1.017587526743305</v>
+        <v>1.013787631333755</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03415232118313</v>
+        <v>0.9994455312986162</v>
       </c>
       <c r="D12">
-        <v>1.045907104768343</v>
+        <v>1.024366609252211</v>
       </c>
       <c r="E12">
-        <v>1.051759536241215</v>
+        <v>1.016842821490197</v>
       </c>
       <c r="F12">
-        <v>1.058253230972667</v>
+        <v>1.027768610138768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043876652626618</v>
+        <v>1.050220381728267</v>
       </c>
       <c r="J12">
-        <v>1.040811925025848</v>
+        <v>1.029273375787342</v>
       </c>
       <c r="K12">
-        <v>1.049482351525294</v>
+        <v>1.03904141321292</v>
       </c>
       <c r="L12">
-        <v>1.055313386051392</v>
+        <v>1.031654300376195</v>
       </c>
       <c r="M12">
-        <v>1.061783645091022</v>
+        <v>1.042382467264784</v>
       </c>
       <c r="N12">
-        <v>1.017552747509799</v>
+        <v>1.013608365880569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034193297300189</v>
+        <v>0.9996630910548161</v>
       </c>
       <c r="D13">
-        <v>1.045940580482882</v>
+        <v>1.024536104883676</v>
       </c>
       <c r="E13">
-        <v>1.05180336566127</v>
+        <v>1.01704943194127</v>
       </c>
       <c r="F13">
-        <v>1.058294996403347</v>
+        <v>1.027970941726292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04388817723389</v>
+        <v>1.050298358376336</v>
       </c>
       <c r="J13">
-        <v>1.040834347082205</v>
+        <v>1.02938904309528</v>
       </c>
       <c r="K13">
-        <v>1.049506169187326</v>
+        <v>1.039165351330232</v>
       </c>
       <c r="L13">
-        <v>1.055347582156547</v>
+        <v>1.031814159770637</v>
       </c>
       <c r="M13">
-        <v>1.061815853193792</v>
+        <v>1.042538887175449</v>
       </c>
       <c r="N13">
-        <v>1.017560208211627</v>
+        <v>1.013646907338882</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034327577707684</v>
+        <v>1.000374162387824</v>
       </c>
       <c r="D14">
-        <v>1.046050282831521</v>
+        <v>1.02509020681187</v>
       </c>
       <c r="E14">
-        <v>1.051947020705666</v>
+        <v>1.01772502570257</v>
       </c>
       <c r="F14">
-        <v>1.058431877152572</v>
+        <v>1.02863246309734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043925906827194</v>
+        <v>1.0505529452594</v>
       </c>
       <c r="J14">
-        <v>1.040907811091901</v>
+        <v>1.029767015870222</v>
       </c>
       <c r="K14">
-        <v>1.049584203742922</v>
+        <v>1.039570347876295</v>
       </c>
       <c r="L14">
-        <v>1.055459651882491</v>
+        <v>1.032336781459059</v>
       </c>
       <c r="M14">
-        <v>1.061921397301044</v>
+        <v>1.043050174342874</v>
       </c>
       <c r="N14">
-        <v>1.017584652079214</v>
+        <v>1.013772852944125</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034410326898405</v>
+        <v>1.000810923421237</v>
       </c>
       <c r="D15">
-        <v>1.04611788680479</v>
+        <v>1.025430645875564</v>
       </c>
       <c r="E15">
-        <v>1.05203556549178</v>
+        <v>1.018140231080388</v>
       </c>
       <c r="F15">
-        <v>1.05851623928434</v>
+        <v>1.029038957885668</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043949129043266</v>
+        <v>1.050709111548743</v>
       </c>
       <c r="J15">
-        <v>1.040953071973509</v>
+        <v>1.02999912095673</v>
       </c>
       <c r="K15">
-        <v>1.049632278956591</v>
+        <v>1.039819045086332</v>
       </c>
       <c r="L15">
-        <v>1.055528719808584</v>
+        <v>1.032657895972145</v>
       </c>
       <c r="M15">
-        <v>1.061986435560852</v>
+        <v>1.043364255713514</v>
       </c>
       <c r="N15">
-        <v>1.017599711461824</v>
+        <v>1.01385019454787</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034892184488468</v>
+        <v>1.003332737150896</v>
       </c>
       <c r="D16">
-        <v>1.046511564146075</v>
+        <v>1.027397685378278</v>
       </c>
       <c r="E16">
-        <v>1.052551454586254</v>
+        <v>1.020541136244551</v>
       </c>
       <c r="F16">
-        <v>1.059007649342698</v>
+        <v>1.031388549461967</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044083921725767</v>
+        <v>1.051607603975471</v>
       </c>
       <c r="J16">
-        <v>1.041216467371683</v>
+        <v>1.03133838402151</v>
       </c>
       <c r="K16">
-        <v>1.049912028430446</v>
+        <v>1.041254001117445</v>
       </c>
       <c r="L16">
-        <v>1.055930999561826</v>
+        <v>1.034513542054911</v>
       </c>
       <c r="M16">
-        <v>1.0623651232393</v>
+        <v>1.045178209998262</v>
       </c>
       <c r="N16">
-        <v>1.017687343519177</v>
+        <v>1.014296476053999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035194634644844</v>
+        <v>1.004897066567561</v>
       </c>
       <c r="D17">
-        <v>1.046758675946451</v>
+        <v>1.028619049425015</v>
       </c>
       <c r="E17">
-        <v>1.052875514598545</v>
+        <v>1.02203355462398</v>
       </c>
       <c r="F17">
-        <v>1.059316236118266</v>
+        <v>1.032848237568307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044168146448984</v>
+        <v>1.052162116626968</v>
       </c>
       <c r="J17">
-        <v>1.041381649869055</v>
+        <v>1.032168349798222</v>
       </c>
       <c r="K17">
-        <v>1.050087445906304</v>
+        <v>1.042143224626954</v>
       </c>
       <c r="L17">
-        <v>1.056183579422652</v>
+        <v>1.03566597872716</v>
       </c>
       <c r="M17">
-        <v>1.062602783165835</v>
+        <v>1.046303829800475</v>
       </c>
       <c r="N17">
-        <v>1.017742294753022</v>
+        <v>1.014573056439431</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035371117890589</v>
+        <v>1.005803333356261</v>
       </c>
       <c r="D18">
-        <v>1.046902872145657</v>
+        <v>1.02932703191089</v>
       </c>
       <c r="E18">
-        <v>1.053064697122714</v>
+        <v>1.022899263167834</v>
       </c>
       <c r="F18">
-        <v>1.059496350771619</v>
+        <v>1.033694658883238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044217155118325</v>
+        <v>1.05248232853059</v>
       </c>
       <c r="J18">
-        <v>1.041477983743905</v>
+        <v>1.032648876418145</v>
       </c>
       <c r="K18">
-        <v>1.050189741156371</v>
+        <v>1.042658041422476</v>
       </c>
       <c r="L18">
-        <v>1.056330991053608</v>
+        <v>1.036334095238664</v>
       </c>
       <c r="M18">
-        <v>1.062741448558741</v>
+        <v>1.04695606531264</v>
       </c>
       <c r="N18">
-        <v>1.017774340228642</v>
+        <v>1.014733192220357</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035431305795924</v>
+        <v>1.006111311624015</v>
       </c>
       <c r="D19">
-        <v>1.046952049452527</v>
+        <v>1.029567694438692</v>
       </c>
       <c r="E19">
-        <v>1.053129231193493</v>
+        <v>1.02319364443125</v>
       </c>
       <c r="F19">
-        <v>1.059557785707996</v>
+        <v>1.033982430355239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044233845734967</v>
+        <v>1.052590969887959</v>
       </c>
       <c r="J19">
-        <v>1.041510828644155</v>
+        <v>1.032812122930264</v>
       </c>
       <c r="K19">
-        <v>1.050224617283026</v>
+        <v>1.0428329338166</v>
       </c>
       <c r="L19">
-        <v>1.056381269156025</v>
+        <v>1.036561221586432</v>
       </c>
       <c r="M19">
-        <v>1.062788737009291</v>
+        <v>1.047177736115248</v>
       </c>
       <c r="N19">
-        <v>1.017785265765854</v>
+        <v>1.014787594771683</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035162177435857</v>
+        <v>1.004729871165074</v>
       </c>
       <c r="D20">
-        <v>1.046732156961921</v>
+        <v>1.028488467622305</v>
       </c>
       <c r="E20">
-        <v>1.052840729068004</v>
+        <v>1.021873930532971</v>
       </c>
       <c r="F20">
-        <v>1.059283115125206</v>
+        <v>1.032692145406204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044159122151581</v>
+        <v>1.052102957431089</v>
       </c>
       <c r="J20">
-        <v>1.041363928818226</v>
+        <v>1.03207967396311</v>
       </c>
       <c r="K20">
-        <v>1.050068627618838</v>
+        <v>1.042048219388684</v>
       </c>
       <c r="L20">
-        <v>1.056156471078525</v>
+        <v>1.035542757131646</v>
       </c>
       <c r="M20">
-        <v>1.062577280108889</v>
+        <v>1.046183510148146</v>
       </c>
       <c r="N20">
-        <v>1.017736399690143</v>
+        <v>1.014543505441908</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03428803242972</v>
+        <v>1.000165052396467</v>
       </c>
       <c r="D21">
-        <v>1.046017975567483</v>
+        <v>1.024927238418094</v>
       </c>
       <c r="E21">
-        <v>1.051904710752934</v>
+        <v>1.017526299614116</v>
       </c>
       <c r="F21">
-        <v>1.058391563891558</v>
+        <v>1.028437889332527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043914801448788</v>
+        <v>1.050478120446361</v>
       </c>
       <c r="J21">
-        <v>1.040886178336279</v>
+        <v>1.029655874457834</v>
       </c>
       <c r="K21">
-        <v>1.049561225436038</v>
+        <v>1.03945126076021</v>
       </c>
       <c r="L21">
-        <v>1.055426646374067</v>
+        <v>1.032183068305689</v>
       </c>
       <c r="M21">
-        <v>1.061890315303201</v>
+        <v>1.042899809252559</v>
       </c>
       <c r="N21">
-        <v>1.017577454237567</v>
+        <v>1.013735818905835</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033739058741637</v>
+        <v>0.9972362301766668</v>
       </c>
       <c r="D22">
-        <v>1.045569495874184</v>
+        <v>1.0226464010171</v>
       </c>
       <c r="E22">
-        <v>1.051317689198335</v>
+        <v>1.014747194257565</v>
       </c>
       <c r="F22">
-        <v>1.057832116867816</v>
+        <v>1.025715738813115</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043760128607059</v>
+        <v>1.04942638408792</v>
       </c>
       <c r="J22">
-        <v>1.040585677865792</v>
+        <v>1.028098208893078</v>
       </c>
       <c r="K22">
-        <v>1.049242006022301</v>
+        <v>1.037782193144421</v>
       </c>
       <c r="L22">
-        <v>1.054968564133439</v>
+        <v>1.030032059972375</v>
       </c>
       <c r="M22">
-        <v>1.06145878707701</v>
+        <v>1.040794414188484</v>
       </c>
       <c r="N22">
-        <v>1.017477462183795</v>
+        <v>1.013216801335634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034030019182927</v>
+        <v>0.9987945757023244</v>
       </c>
       <c r="D23">
-        <v>1.045807190238291</v>
+        <v>1.023859570983175</v>
       </c>
       <c r="E23">
-        <v>1.051628738457823</v>
+        <v>1.016224890349733</v>
       </c>
       <c r="F23">
-        <v>1.058128584714304</v>
+        <v>1.027163407624011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043842223668954</v>
+        <v>1.049986839908517</v>
       </c>
       <c r="J23">
-        <v>1.040744989774186</v>
+        <v>1.028927228402017</v>
       </c>
       <c r="K23">
-        <v>1.049411248329375</v>
+        <v>1.03867051192661</v>
       </c>
       <c r="L23">
-        <v>1.055211326961962</v>
+        <v>1.031176106738629</v>
       </c>
       <c r="M23">
-        <v>1.061687510442544</v>
+        <v>1.041914486026426</v>
       </c>
       <c r="N23">
-        <v>1.017530475088243</v>
+        <v>1.013493027516718</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035176843237952</v>
+        <v>1.004805438637395</v>
       </c>
       <c r="D24">
-        <v>1.046744139564193</v>
+        <v>1.028547485552864</v>
       </c>
       <c r="E24">
-        <v>1.052856446646091</v>
+        <v>1.021946072578922</v>
       </c>
       <c r="F24">
-        <v>1.05929808070206</v>
+        <v>1.032762692131982</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044163200208417</v>
+        <v>1.052129698883274</v>
       </c>
       <c r="J24">
-        <v>1.041371936242593</v>
+        <v>1.032119753798982</v>
       </c>
       <c r="K24">
-        <v>1.050077130863539</v>
+        <v>1.042091160055083</v>
       </c>
       <c r="L24">
-        <v>1.056168719906654</v>
+        <v>1.035598448256888</v>
       </c>
       <c r="M24">
-        <v>1.062588803711841</v>
+        <v>1.046237890749155</v>
       </c>
       <c r="N24">
-        <v>1.017739063435912</v>
+        <v>1.014556861934738</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036510376118816</v>
+        <v>1.01153963923928</v>
       </c>
       <c r="D25">
-        <v>1.047833766373925</v>
+        <v>1.03381509236321</v>
       </c>
       <c r="E25">
-        <v>1.054287551595205</v>
+        <v>1.028398206788277</v>
       </c>
       <c r="F25">
-        <v>1.060659962743335</v>
+        <v>1.039065665786679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0445310362231</v>
+        <v>1.054490298284051</v>
       </c>
       <c r="J25">
-        <v>1.042098907827693</v>
+        <v>1.035684793036501</v>
       </c>
       <c r="K25">
-        <v>1.050848951067897</v>
+        <v>1.045910209354038</v>
       </c>
       <c r="L25">
-        <v>1.057283091183278</v>
+        <v>1.040571110546295</v>
       </c>
       <c r="M25">
-        <v>1.063636360492799</v>
+        <v>1.051086362435686</v>
       </c>
       <c r="N25">
-        <v>1.017980856093774</v>
+        <v>1.015744960022298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016731294731067</v>
+        <v>0.9965137685760165</v>
       </c>
       <c r="D2">
-        <v>1.03788693857714</v>
+        <v>1.018952711146048</v>
       </c>
       <c r="E2">
-        <v>1.033405304981486</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.043947501306847</v>
+        <v>1.024389554462505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056276660757755</v>
+        <v>1.047139274075014</v>
       </c>
       <c r="J2">
-        <v>1.03842283768382</v>
+        <v>1.018799254580747</v>
       </c>
       <c r="K2">
-        <v>1.048842524430698</v>
+        <v>1.030154171198514</v>
       </c>
       <c r="L2">
-        <v>1.044418070390819</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.054826736150506</v>
+        <v>1.035519247577828</v>
       </c>
       <c r="N2">
-        <v>1.016657492696907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010345394511101</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036683482132565</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032391789975739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020403597204839</v>
+        <v>0.999872235905116</v>
       </c>
       <c r="D3">
-        <v>1.040772673424742</v>
+        <v>1.021133481739281</v>
       </c>
       <c r="E3">
-        <v>1.036965608899086</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.047413161896074</v>
+        <v>1.02696538095901</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057520172709148</v>
+        <v>1.047807867074287</v>
       </c>
       <c r="J3">
-        <v>1.040353082157983</v>
+        <v>1.020366384504704</v>
       </c>
       <c r="K3">
-        <v>1.050909143042698</v>
+        <v>1.031502912159221</v>
       </c>
       <c r="L3">
-        <v>1.047146384991998</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.057473300913406</v>
+        <v>1.037264479620115</v>
       </c>
       <c r="N3">
-        <v>1.017300795372423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010864159183783</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.0380647223045</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033342794771563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022736900067674</v>
+        <v>1.002007423021495</v>
       </c>
       <c r="D4">
-        <v>1.042608531766814</v>
+        <v>1.02252128916624</v>
       </c>
       <c r="E4">
-        <v>1.039236190510649</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.049620780182773</v>
+        <v>1.028608635238573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058300766116088</v>
+        <v>1.048219505746885</v>
       </c>
       <c r="J4">
-        <v>1.04157634897701</v>
+        <v>1.021359917733432</v>
       </c>
       <c r="K4">
-        <v>1.052218531612478</v>
+        <v>1.032355293139422</v>
       </c>
       <c r="L4">
-        <v>1.04888305412335</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.05915505690468</v>
+        <v>1.038373617838861</v>
       </c>
       <c r="N4">
-        <v>1.01770846626627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011193136627577</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.03894253327933</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033946413689783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023707840690721</v>
+        <v>1.002898505713844</v>
       </c>
       <c r="D5">
-        <v>1.043372998393954</v>
+        <v>1.023102581963994</v>
       </c>
       <c r="E5">
-        <v>1.040183036711536</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.050540741920049</v>
+        <v>1.029294945065894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058623275065623</v>
+        <v>1.048389208230936</v>
       </c>
       <c r="J5">
-        <v>1.042084594469141</v>
+        <v>1.021775031408607</v>
       </c>
       <c r="K5">
-        <v>1.052762481270597</v>
+        <v>1.03271213461462</v>
       </c>
       <c r="L5">
-        <v>1.049606455493607</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.059854890301522</v>
+        <v>1.038836139991737</v>
       </c>
       <c r="N5">
-        <v>1.017877841430084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011330856226566</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039308589251885</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034205961231557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02387028904365</v>
+        <v>1.003050400917164</v>
       </c>
       <c r="D6">
-        <v>1.043500931366701</v>
+        <v>1.023203906083569</v>
       </c>
       <c r="E6">
-        <v>1.040341571132984</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.050694737937793</v>
+        <v>1.029411050175934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058677097189457</v>
+        <v>1.048419384231981</v>
       </c>
       <c r="J6">
-        <v>1.042169582428055</v>
+        <v>1.021847173958182</v>
       </c>
       <c r="K6">
-        <v>1.052853434896536</v>
+        <v>1.032775766856563</v>
       </c>
       <c r="L6">
-        <v>1.049727530436896</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.059971979783085</v>
+        <v>1.038914701203467</v>
       </c>
       <c r="N6">
-        <v>1.017906163733926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011355091059156</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039370765283894</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034259768161413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022749912654144</v>
+        <v>1.002026811480161</v>
       </c>
       <c r="D7">
-        <v>1.042618775154728</v>
+        <v>1.022539843297762</v>
       </c>
       <c r="E7">
-        <v>1.039248872290243</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.049633104363232</v>
+        <v>1.028620987338281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058305097572807</v>
+        <v>1.048227043773686</v>
       </c>
       <c r="J7">
-        <v>1.041583163629254</v>
+        <v>1.021372741165212</v>
       </c>
       <c r="K7">
-        <v>1.052225825307269</v>
+        <v>1.032370722580487</v>
       </c>
       <c r="L7">
-        <v>1.048892746312181</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.059164436072953</v>
+        <v>1.038382941150439</v>
       </c>
       <c r="N7">
-        <v>1.017710737301689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011198203015708</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038949912071284</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033977593504367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017981435934131</v>
+        <v>0.9976658364581223</v>
       </c>
       <c r="D8">
-        <v>1.038868805747038</v>
+        <v>1.019707619890802</v>
       </c>
       <c r="E8">
-        <v>1.034615539678024</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.045126106226192</v>
+        <v>1.025268784118645</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05670195303746</v>
+        <v>1.047375929211852</v>
       </c>
       <c r="J8">
-        <v>1.039080589131666</v>
+        <v>1.019341965183133</v>
       </c>
       <c r="K8">
-        <v>1.049546807371403</v>
+        <v>1.03062709541027</v>
       </c>
       <c r="L8">
-        <v>1.045346179720604</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.055727635135293</v>
+        <v>1.036117015520796</v>
       </c>
       <c r="N8">
-        <v>1.016876706889579</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010526080470294</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037156577745388</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032749285554742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009236124151629</v>
+        <v>0.9896675362297047</v>
       </c>
       <c r="D9">
-        <v>1.032011429711102</v>
+        <v>1.014516615021187</v>
       </c>
       <c r="E9">
-        <v>1.026185922890331</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.036906008756052</v>
+        <v>1.019171249968988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05368801304348</v>
+        <v>1.045704983067676</v>
       </c>
       <c r="J9">
-        <v>1.034466894473042</v>
+        <v>1.015590511675705</v>
       </c>
       <c r="K9">
-        <v>1.044605648670579</v>
+        <v>1.027378480355592</v>
       </c>
       <c r="L9">
-        <v>1.038867972339434</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.049427402211442</v>
+        <v>1.031960760208147</v>
       </c>
       <c r="N9">
-        <v>1.015339067754334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009283830451131</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033867157354359</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030449063133108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003155106636345</v>
+        <v>0.9841640203193254</v>
       </c>
       <c r="D10">
-        <v>1.02725905525687</v>
+        <v>1.010960284101161</v>
       </c>
       <c r="E10">
-        <v>1.020371822127067</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.031222907679391</v>
+        <v>1.015184011640304</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051544498698978</v>
+        <v>1.044511857517652</v>
       </c>
       <c r="J10">
-        <v>1.031244100845542</v>
+        <v>1.013020338711469</v>
       </c>
       <c r="K10">
-        <v>1.041152983985096</v>
+        <v>1.025134427420644</v>
       </c>
       <c r="L10">
-        <v>1.03438274736514</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.045050413484845</v>
+        <v>1.029284421180816</v>
       </c>
       <c r="N10">
-        <v>1.01426505736564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008437340382484</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031800850100639</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028879310607923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000457612420459</v>
+        <v>0.982078973868302</v>
       </c>
       <c r="D11">
-        <v>1.025155247546355</v>
+        <v>1.009634599019879</v>
       </c>
       <c r="E11">
-        <v>1.017804343290559</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.028710120345891</v>
+        <v>1.01506567961101</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050582795613808</v>
+        <v>1.044218062592526</v>
       </c>
       <c r="J11">
-        <v>1.029811366564537</v>
+        <v>1.01221677150742</v>
       </c>
       <c r="K11">
-        <v>1.03961786915566</v>
+        <v>1.024377079757857</v>
       </c>
       <c r="L11">
-        <v>1.032398129246035</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.043110182542409</v>
+        <v>1.029708964162342</v>
       </c>
       <c r="N11">
-        <v>1.013787631333755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008204520947735</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032576030316503</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028376960259161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994455312986162</v>
+        <v>0.9813813650422444</v>
       </c>
       <c r="D12">
-        <v>1.024366609252211</v>
+        <v>1.009182086565702</v>
       </c>
       <c r="E12">
-        <v>1.016842821490197</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.027768610138768</v>
+        <v>1.015560609739651</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050220381728267</v>
+        <v>1.044168545474951</v>
       </c>
       <c r="J12">
-        <v>1.029273375787342</v>
+        <v>1.011995149218649</v>
       </c>
       <c r="K12">
-        <v>1.03904141321292</v>
+        <v>1.024135461506279</v>
       </c>
       <c r="L12">
-        <v>1.031654300376195</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.042382467264784</v>
+        <v>1.030395644058683</v>
       </c>
       <c r="N12">
-        <v>1.013608365880569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00815459825951</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033447390816592</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028206125454224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9996630910548161</v>
+        <v>0.9817164062104548</v>
       </c>
       <c r="D13">
-        <v>1.024536104883676</v>
+        <v>1.009386019516114</v>
       </c>
       <c r="E13">
-        <v>1.01704943194127</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.027970941726292</v>
+        <v>1.016586194286267</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050298358376336</v>
+        <v>1.04431736715206</v>
       </c>
       <c r="J13">
-        <v>1.02938904309528</v>
+        <v>1.012219701474339</v>
       </c>
       <c r="K13">
-        <v>1.039165351330232</v>
+        <v>1.024292143022125</v>
       </c>
       <c r="L13">
-        <v>1.031814159770637</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.042538887175449</v>
+        <v>1.031359390377499</v>
       </c>
       <c r="N13">
-        <v>1.013646907338882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008247696628337</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034487323652028</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028314390931151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000374162387824</v>
+        <v>0.9824145989755648</v>
       </c>
       <c r="D14">
-        <v>1.02509020681187</v>
+        <v>1.009823840528415</v>
       </c>
       <c r="E14">
-        <v>1.01772502570257</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.02863246309734</v>
+        <v>1.017530944222703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0505529452594</v>
+        <v>1.044508123598223</v>
       </c>
       <c r="J14">
-        <v>1.029767015870222</v>
+        <v>1.01257443152432</v>
       </c>
       <c r="K14">
-        <v>1.039570347876295</v>
+        <v>1.02457957056174</v>
       </c>
       <c r="L14">
-        <v>1.032336781459059</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.043050174342874</v>
+        <v>1.032146201681674</v>
       </c>
       <c r="N14">
-        <v>1.013772852944125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008376035048728</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035283227939051</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028519052636836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000810923421237</v>
+        <v>0.9828181427655462</v>
       </c>
       <c r="D15">
-        <v>1.025430645875564</v>
+        <v>1.010082574514405</v>
       </c>
       <c r="E15">
-        <v>1.018140231080388</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.029038957885668</v>
+        <v>1.017909868182568</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050709111548743</v>
+        <v>1.04460505676359</v>
       </c>
       <c r="J15">
-        <v>1.02999912095673</v>
+        <v>1.012768063186927</v>
       </c>
       <c r="K15">
-        <v>1.039819045086332</v>
+        <v>1.024745935153789</v>
       </c>
       <c r="L15">
-        <v>1.032657895972145</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.043364255713514</v>
+        <v>1.032431656815043</v>
       </c>
       <c r="N15">
-        <v>1.01385019454787</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008442300840777</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035546504709754</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028642604388307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003332737150896</v>
+        <v>0.9850855139687379</v>
       </c>
       <c r="D16">
-        <v>1.027397685378278</v>
+        <v>1.011554659398192</v>
       </c>
       <c r="E16">
-        <v>1.020541136244551</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.031388549461967</v>
+        <v>1.019454105196516</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051607603975471</v>
+        <v>1.045103979774656</v>
       </c>
       <c r="J16">
-        <v>1.03133838402151</v>
+        <v>1.013824903223965</v>
       </c>
       <c r="K16">
-        <v>1.041254001117445</v>
+        <v>1.025682304047263</v>
       </c>
       <c r="L16">
-        <v>1.034513542054911</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.045178209998262</v>
+        <v>1.033445101133825</v>
       </c>
       <c r="N16">
-        <v>1.014296476053999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008787379866645</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036308685578153</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029307858091843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004897066567561</v>
+        <v>0.986464247541164</v>
       </c>
       <c r="D17">
-        <v>1.028619049425015</v>
+        <v>1.012458933412393</v>
       </c>
       <c r="E17">
-        <v>1.02203355462398</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.032848237568307</v>
+        <v>1.020141897364055</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052162116626968</v>
+        <v>1.045385580601407</v>
       </c>
       <c r="J17">
-        <v>1.032168349798222</v>
+        <v>1.014452709518499</v>
       </c>
       <c r="K17">
-        <v>1.042143224626954</v>
+        <v>1.026251982811162</v>
       </c>
       <c r="L17">
-        <v>1.03566597872716</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.046303829800475</v>
+        <v>1.033805748340926</v>
       </c>
       <c r="N17">
-        <v>1.014573056439431</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008985861529189</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036464264529899</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.02971325989947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005803333356261</v>
+        <v>0.9871838967618554</v>
       </c>
       <c r="D18">
-        <v>1.02932703191089</v>
+        <v>1.012933955424573</v>
       </c>
       <c r="E18">
-        <v>1.022899263167834</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.033694658883238</v>
+        <v>1.020045728362876</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05248232853059</v>
+        <v>1.045486982376238</v>
       </c>
       <c r="J18">
-        <v>1.032648876418145</v>
+        <v>1.014739980220279</v>
       </c>
       <c r="K18">
-        <v>1.042658041422476</v>
+        <v>1.026533105195441</v>
       </c>
       <c r="L18">
-        <v>1.036334095238664</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.04695606531264</v>
+        <v>1.033527190488452</v>
       </c>
       <c r="N18">
-        <v>1.014733192220357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009064888589308</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036005379299516</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029900286880822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006111311624015</v>
+        <v>0.9872763160059445</v>
       </c>
       <c r="D19">
-        <v>1.029567694438692</v>
+        <v>1.012999777477462</v>
       </c>
       <c r="E19">
-        <v>1.02319364443125</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.033982430355239</v>
+        <v>1.019172585716504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052590969887959</v>
+        <v>1.04541027525323</v>
       </c>
       <c r="J19">
-        <v>1.032812122930264</v>
+        <v>1.014691284134671</v>
       </c>
       <c r="K19">
-        <v>1.0428329338166</v>
+        <v>1.02653446749469</v>
       </c>
       <c r="L19">
-        <v>1.036561221586432</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.047177736115248</v>
+        <v>1.032605568807219</v>
       </c>
       <c r="N19">
-        <v>1.014787594771683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009027559927118</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034949450073952</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029907699954896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004729871165074</v>
+        <v>0.985607762357729</v>
       </c>
       <c r="D20">
-        <v>1.028488467622305</v>
+        <v>1.011905870243351</v>
       </c>
       <c r="E20">
-        <v>1.021873930532971</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.032692145406204</v>
+        <v>1.016229978701803</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052102957431089</v>
+        <v>1.04483872364144</v>
       </c>
       <c r="J20">
-        <v>1.03207967396311</v>
+        <v>1.013704980190428</v>
       </c>
       <c r="K20">
-        <v>1.042048219388684</v>
+        <v>1.025742550764895</v>
       </c>
       <c r="L20">
-        <v>1.035542757131646</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.046183510148146</v>
+        <v>1.029993323147852</v>
       </c>
       <c r="N20">
-        <v>1.014543505441908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008665283642989</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03235124115714</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029351726405137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000165052396467</v>
+        <v>0.981404128859469</v>
       </c>
       <c r="D21">
-        <v>1.024927238418094</v>
+        <v>1.009186348321083</v>
       </c>
       <c r="E21">
-        <v>1.017526299614116</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.028437889332527</v>
+        <v>1.01292669919182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050478120446361</v>
+        <v>1.043868024702192</v>
       </c>
       <c r="J21">
-        <v>1.029655874457834</v>
+        <v>1.011700449115627</v>
       </c>
       <c r="K21">
-        <v>1.03945126076021</v>
+        <v>1.023995747780584</v>
       </c>
       <c r="L21">
-        <v>1.032183068305689</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.042899809252559</v>
+        <v>1.027667241109368</v>
       </c>
       <c r="N21">
-        <v>1.013735818905835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007998934632113</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030469084967792</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028119903653397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9972362301766668</v>
+        <v>0.9787262591692144</v>
       </c>
       <c r="D22">
-        <v>1.0226464010171</v>
+        <v>1.007453438372921</v>
       </c>
       <c r="E22">
-        <v>1.014747194257565</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.025715738813115</v>
+        <v>1.010920932656609</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04942638408792</v>
+        <v>1.043244730100549</v>
       </c>
       <c r="J22">
-        <v>1.028098208893078</v>
+        <v>1.01042943167381</v>
       </c>
       <c r="K22">
-        <v>1.037782193144421</v>
+        <v>1.022878673252643</v>
       </c>
       <c r="L22">
-        <v>1.030032059972375</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.040794414188484</v>
+        <v>1.026279104418746</v>
       </c>
       <c r="N22">
-        <v>1.013216801335634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007577434602313</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02937045140625</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027316439990084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987945757023244</v>
+        <v>0.9801447394855909</v>
       </c>
       <c r="D23">
-        <v>1.023859570983175</v>
+        <v>1.008366383412535</v>
       </c>
       <c r="E23">
-        <v>1.016224890349733</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.027163407624011</v>
+        <v>1.011984804110247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049986839908517</v>
+        <v>1.043573401559193</v>
       </c>
       <c r="J23">
-        <v>1.028927228402017</v>
+        <v>1.011099961376487</v>
       </c>
       <c r="K23">
-        <v>1.03867051192661</v>
+        <v>1.023464887762745</v>
       </c>
       <c r="L23">
-        <v>1.031176106738629</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.041914486026426</v>
+        <v>1.027015119225318</v>
       </c>
       <c r="N23">
-        <v>1.013493027516718</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007798929296414</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029952966712341</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027721202823418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004805438637395</v>
+        <v>0.9856304579992031</v>
       </c>
       <c r="D24">
-        <v>1.028547485552864</v>
+        <v>1.01191077877812</v>
       </c>
       <c r="E24">
-        <v>1.021946072578922</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.032762692131982</v>
+        <v>1.016112441823685</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052129698883274</v>
+        <v>1.044821688827757</v>
       </c>
       <c r="J24">
-        <v>1.032119753798982</v>
+        <v>1.013693096920101</v>
       </c>
       <c r="K24">
-        <v>1.042091160055083</v>
+        <v>1.02573190731412</v>
       </c>
       <c r="L24">
-        <v>1.035598448256888</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.046237890749155</v>
+        <v>1.029862392270172</v>
       </c>
       <c r="N24">
-        <v>1.014556861934738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008657110253926</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032206422389936</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029316553923377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01153963923928</v>
+        <v>0.9917838856947502</v>
       </c>
       <c r="D25">
-        <v>1.03381509236321</v>
+        <v>1.015897048258688</v>
       </c>
       <c r="E25">
-        <v>1.028398206788277</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.039065665786679</v>
+        <v>1.020775013915483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054490298284051</v>
+        <v>1.046164331578365</v>
       </c>
       <c r="J25">
-        <v>1.035684793036501</v>
+        <v>1.016590954221178</v>
       </c>
       <c r="K25">
-        <v>1.045910209354038</v>
+        <v>1.02825349538303</v>
       </c>
       <c r="L25">
-        <v>1.040571110546295</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.051086362435686</v>
+        <v>1.033059162944598</v>
       </c>
       <c r="N25">
-        <v>1.015744960022298</v>
+        <v>1.009616416095727</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034736477035207</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031096589829005</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9965137685760165</v>
+        <v>0.9968442687921329</v>
       </c>
       <c r="D2">
-        <v>1.018952711146048</v>
+        <v>1.018980117882561</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.024389554462505</v>
+        <v>1.024510273122047</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047139274075014</v>
+        <v>1.047158791000834</v>
       </c>
       <c r="J2">
-        <v>1.018799254580747</v>
+        <v>1.019119778674952</v>
       </c>
       <c r="K2">
-        <v>1.030154171198514</v>
+        <v>1.03018121375265</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.035519247577828</v>
+        <v>1.035638383571055</v>
       </c>
       <c r="N2">
-        <v>1.010345394511101</v>
+        <v>1.012393459237112</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036683482132565</v>
+        <v>1.036777770779851</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032391789975739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032419757418152</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020199302781225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.999872235905116</v>
+        <v>1.000082587948942</v>
       </c>
       <c r="D3">
-        <v>1.021133481739281</v>
+        <v>1.021006396887016</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.02696538095901</v>
+        <v>1.027029960283741</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047807867074287</v>
+        <v>1.047750094679217</v>
       </c>
       <c r="J3">
-        <v>1.020366384504704</v>
+        <v>1.020571001786782</v>
       </c>
       <c r="K3">
-        <v>1.031502912159221</v>
+        <v>1.031377371042312</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.037264479620115</v>
+        <v>1.037328285675341</v>
       </c>
       <c r="N3">
-        <v>1.010864159183783</v>
+        <v>1.012775639204742</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.0380647223045</v>
+        <v>1.038115220688727</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033342794771563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033262594162312</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020415842237017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002007423021495</v>
+        <v>1.002142213957804</v>
       </c>
       <c r="D4">
-        <v>1.02252128916624</v>
+        <v>1.022296596138323</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.028608635238573</v>
+        <v>1.028637878529711</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048219505746885</v>
+        <v>1.04811281709754</v>
       </c>
       <c r="J4">
-        <v>1.021359917733432</v>
+        <v>1.021491279971579</v>
       </c>
       <c r="K4">
-        <v>1.032355293139422</v>
+        <v>1.032133167201069</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.038373617838861</v>
+        <v>1.038402531983791</v>
       </c>
       <c r="N4">
-        <v>1.011193136627577</v>
+        <v>1.013018083876896</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.03894253327933</v>
+        <v>1.038965416935625</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033946413689783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033798000176679</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020549989309799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002898505713844</v>
+        <v>1.003001989509707</v>
       </c>
       <c r="D5">
-        <v>1.023102581963994</v>
+        <v>1.022837379832033</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.029294945065894</v>
+        <v>1.029309547937519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048389208230936</v>
+        <v>1.048262199082866</v>
       </c>
       <c r="J5">
-        <v>1.021775031408607</v>
+        <v>1.021875960736015</v>
       </c>
       <c r="K5">
-        <v>1.03271213461462</v>
+        <v>1.032449882794556</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.038836139991737</v>
+        <v>1.038850582855637</v>
       </c>
       <c r="N5">
-        <v>1.011330856226566</v>
+        <v>1.013119641734741</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039308589251885</v>
+        <v>1.03932001982914</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034205961231557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034029885248199</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020605886319135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003050400917164</v>
+        <v>1.003148605539788</v>
       </c>
       <c r="D6">
-        <v>1.023203906083569</v>
+        <v>1.022931907392637</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.029411050175934</v>
+        <v>1.02942319322266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048419384231981</v>
+        <v>1.04828896569891</v>
       </c>
       <c r="J6">
-        <v>1.021847173958182</v>
+        <v>1.021942966765982</v>
       </c>
       <c r="K6">
-        <v>1.032775766856563</v>
+        <v>1.032506780410831</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.038914701203467</v>
+        <v>1.038926711800991</v>
       </c>
       <c r="N6">
-        <v>1.011355091059156</v>
+        <v>1.013137567648331</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039370765283894</v>
+        <v>1.039380270881408</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034259768161413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034079798218198</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020616298037433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002026811480161</v>
+        <v>1.00216878903022</v>
       </c>
       <c r="D7">
-        <v>1.022539843297762</v>
+        <v>1.022319658777973</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.028620987338281</v>
+        <v>1.028653285592154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048227043773686</v>
+        <v>1.048122710519151</v>
       </c>
       <c r="J7">
-        <v>1.021372741165212</v>
+        <v>1.021511108755468</v>
       </c>
       <c r="K7">
-        <v>1.032370722580487</v>
+        <v>1.032153052674338</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.038382941150439</v>
+        <v>1.038414876006483</v>
       </c>
       <c r="N7">
-        <v>1.011198203015708</v>
+        <v>1.013049813316768</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038949912071284</v>
+        <v>1.038975186422734</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033977593504367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033834327887245</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020555083083178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9976658364581223</v>
+        <v>0.9979788605521464</v>
       </c>
       <c r="D8">
-        <v>1.019707619890802</v>
+        <v>1.019697953620284</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.025268784118645</v>
+        <v>1.025380396932415</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047375929211852</v>
+        <v>1.04737721465445</v>
       </c>
       <c r="J8">
-        <v>1.019341965183133</v>
+        <v>1.019645854658795</v>
       </c>
       <c r="K8">
-        <v>1.03062709541027</v>
+        <v>1.030617553820644</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.036117015520796</v>
+        <v>1.03622720834232</v>
       </c>
       <c r="N8">
-        <v>1.010526080470294</v>
+        <v>1.012611388609917</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037156577745388</v>
+        <v>1.037243788377073</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032749285554742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032753648883041</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020281530971583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9896675362297047</v>
+        <v>0.9902751441441791</v>
       </c>
       <c r="D9">
-        <v>1.014516615021187</v>
+        <v>1.0148805104926</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.019171249968988</v>
+        <v>1.019420218064294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045704983067676</v>
+        <v>1.045892695593209</v>
       </c>
       <c r="J9">
-        <v>1.015590511675705</v>
+        <v>1.016176048556011</v>
       </c>
       <c r="K9">
-        <v>1.027378480355592</v>
+        <v>1.027736688587737</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.031960760208147</v>
+        <v>1.032205881931516</v>
       </c>
       <c r="N9">
-        <v>1.009283830451131</v>
+        <v>1.011706838882731</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033867157354359</v>
+        <v>1.034061156543726</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030449063133108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030713176777856</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019743971560596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9841640203193254</v>
+        <v>0.9850129242139833</v>
       </c>
       <c r="D10">
-        <v>1.010960284101161</v>
+        <v>1.011606552064587</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.015184011640304</v>
+        <v>1.015544127973075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044511857517652</v>
+        <v>1.044840505464734</v>
       </c>
       <c r="J10">
-        <v>1.013020338711469</v>
+        <v>1.013834044181838</v>
       </c>
       <c r="K10">
-        <v>1.025134427420644</v>
+        <v>1.025769361766869</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.029284421180816</v>
+        <v>1.029638287670015</v>
       </c>
       <c r="N10">
-        <v>1.008437340382484</v>
+        <v>1.011210180530984</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031800850100639</v>
+        <v>1.032080897339497</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028879310607923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029340768138942</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019367759163794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.982078973868302</v>
+        <v>0.9830682229250034</v>
       </c>
       <c r="D11">
-        <v>1.009634599019879</v>
+        <v>1.010418066963022</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.01506567961101</v>
+        <v>1.015489058201034</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044218062592526</v>
+        <v>1.0446160140353</v>
       </c>
       <c r="J11">
-        <v>1.01221677150742</v>
+        <v>1.013162750943879</v>
       </c>
       <c r="K11">
-        <v>1.024377079757857</v>
+        <v>1.02514615228632</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.029708964162342</v>
+        <v>1.030124667918521</v>
       </c>
       <c r="N11">
-        <v>1.008204520947735</v>
+        <v>1.011284653807453</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032576030316503</v>
+        <v>1.03290484714442</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028376960259161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028936471703314</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019264195434771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9813813650422444</v>
+        <v>0.9824242404532038</v>
       </c>
       <c r="D12">
-        <v>1.009182086565702</v>
+        <v>1.010015642688775</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.015560609739651</v>
+        <v>1.016008288158013</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044168545474951</v>
+        <v>1.044591829321651</v>
       </c>
       <c r="J12">
-        <v>1.011995149218649</v>
+        <v>1.012991524603893</v>
       </c>
       <c r="K12">
-        <v>1.024135461506279</v>
+        <v>1.024953441876394</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.030395644058683</v>
+        <v>1.030835089404063</v>
       </c>
       <c r="N12">
-        <v>1.00815459825951</v>
+        <v>1.011357039089665</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033447390816592</v>
+        <v>1.033794868003218</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028206125454224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028800220006254</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019233552069364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9817164062104548</v>
+        <v>0.9827388643632116</v>
       </c>
       <c r="D13">
-        <v>1.009386019516114</v>
+        <v>1.010198834625661</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.016586194286267</v>
+        <v>1.01702537509738</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04431736715206</v>
+        <v>1.044730254574074</v>
       </c>
       <c r="J13">
-        <v>1.012219701474339</v>
+        <v>1.013196780550908</v>
       </c>
       <c r="K13">
-        <v>1.024292143022125</v>
+        <v>1.025089828418989</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.031359390377499</v>
+        <v>1.031790542453044</v>
       </c>
       <c r="N13">
-        <v>1.008247696628337</v>
+        <v>1.011401468767904</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034487323652028</v>
+        <v>1.034828156855036</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028314390931151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028893891945218</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019261753794804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9824145989755648</v>
+        <v>0.9833904834018153</v>
       </c>
       <c r="D14">
-        <v>1.009823840528415</v>
+        <v>1.010591185269716</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.017530944222703</v>
+        <v>1.017949994008821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044508123598223</v>
+        <v>1.044898130610308</v>
       </c>
       <c r="J14">
-        <v>1.01257443152432</v>
+        <v>1.013507610480763</v>
       </c>
       <c r="K14">
-        <v>1.02457957056174</v>
+        <v>1.025332804277968</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.032146201681674</v>
+        <v>1.032557692961209</v>
       </c>
       <c r="N14">
-        <v>1.008376035048728</v>
+        <v>1.011420185684473</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035283227939051</v>
+        <v>1.035608474806214</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028519052636836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029067258691639</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019307719432156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9828181427655462</v>
+        <v>0.9837667433884273</v>
       </c>
       <c r="D15">
-        <v>1.010082574514405</v>
+        <v>1.010823257976493</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.017909868182568</v>
+        <v>1.018316938718434</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04460505676359</v>
+        <v>1.044981662008168</v>
       </c>
       <c r="J15">
-        <v>1.012768063186927</v>
+        <v>1.013675510556185</v>
       </c>
       <c r="K15">
-        <v>1.024745935153789</v>
+        <v>1.025473099654935</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.032431656815043</v>
+        <v>1.032831441998078</v>
       </c>
       <c r="N15">
-        <v>1.008442300840777</v>
+        <v>1.011424495944635</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035546504709754</v>
+        <v>1.035862490612567</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028642604388307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029172945918527</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019334538385076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850855139687379</v>
+        <v>0.985885117370215</v>
       </c>
       <c r="D16">
-        <v>1.011554659398192</v>
+        <v>1.01214635092009</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.019454105196516</v>
+        <v>1.019794502147804</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045103979774656</v>
+        <v>1.04540583618901</v>
       </c>
       <c r="J16">
-        <v>1.013824903223965</v>
+        <v>1.014591544402826</v>
       </c>
       <c r="K16">
-        <v>1.025682304047263</v>
+        <v>1.026263664484265</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.033445101133825</v>
+        <v>1.033779671196578</v>
       </c>
       <c r="N16">
-        <v>1.008787379866645</v>
+        <v>1.011456937928187</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036308685578153</v>
+        <v>1.036573133706262</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029307858091843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029735406085817</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019488753394921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.986464247541164</v>
+        <v>0.987181862147236</v>
       </c>
       <c r="D17">
-        <v>1.012458933412393</v>
+        <v>1.012965060386697</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.020141897364055</v>
+        <v>1.020444944451231</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045385580601407</v>
+        <v>1.045644572885142</v>
       </c>
       <c r="J17">
-        <v>1.014452709518499</v>
+        <v>1.015141693102651</v>
       </c>
       <c r="K17">
-        <v>1.026251982811162</v>
+        <v>1.026749520808845</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.033805748340926</v>
+        <v>1.034103750688512</v>
       </c>
       <c r="N17">
-        <v>1.008985861529189</v>
+        <v>1.011501351528017</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036464264529899</v>
+        <v>1.036699832669147</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.02971325989947</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03008178670834</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019583726237168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9871838967618554</v>
+        <v>0.9878608644756983</v>
       </c>
       <c r="D18">
-        <v>1.012933955424573</v>
+        <v>1.01339646797868</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.020045728362876</v>
+        <v>1.02032957513296</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045486982376238</v>
+        <v>1.045724105150063</v>
       </c>
       <c r="J18">
-        <v>1.014739980220279</v>
+        <v>1.015390450102174</v>
       </c>
       <c r="K18">
-        <v>1.026533105195441</v>
+        <v>1.026987899264217</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.033527190488452</v>
+        <v>1.033806383855477</v>
       </c>
       <c r="N18">
-        <v>1.009064888589308</v>
+        <v>1.01151424808125</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036005379299516</v>
+        <v>1.036226125428583</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029900286880822</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030237457096334</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019628320220937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872763160059445</v>
+        <v>0.9879484724063138</v>
       </c>
       <c r="D19">
-        <v>1.012999777477462</v>
+        <v>1.013457476517778</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.019172585716504</v>
+        <v>1.019453407357443</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04541027525323</v>
+        <v>1.045644845344923</v>
       </c>
       <c r="J19">
-        <v>1.014691284134671</v>
+        <v>1.015337292168129</v>
       </c>
       <c r="K19">
-        <v>1.02653446749469</v>
+        <v>1.02698457045677</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.032605568807219</v>
+        <v>1.032881801107217</v>
       </c>
       <c r="N19">
-        <v>1.009027559927118</v>
+        <v>1.011473294576489</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034949450073952</v>
+        <v>1.035167927081747</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029907699954896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030242175610473</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019621564148892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.985607762357729</v>
+        <v>0.9863718467239041</v>
       </c>
       <c r="D20">
-        <v>1.011905870243351</v>
+        <v>1.01246428674767</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.016229978701803</v>
+        <v>1.016551791366179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04483872364144</v>
+        <v>1.045123303715526</v>
       </c>
       <c r="J20">
-        <v>1.013704980190428</v>
+        <v>1.014438410811722</v>
       </c>
       <c r="K20">
-        <v>1.025742550764895</v>
+        <v>1.0262914511415</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.029993323147852</v>
+        <v>1.030309710103154</v>
       </c>
       <c r="N20">
-        <v>1.008665283642989</v>
+        <v>1.011272123296675</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03235124115714</v>
+        <v>1.03260163044461</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029351726405137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029756445924692</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019469609989947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.981404128859469</v>
+        <v>0.982459611387537</v>
       </c>
       <c r="D21">
-        <v>1.009186348321083</v>
+        <v>1.010031651398546</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.01292669919182</v>
+        <v>1.013379547864888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043868024702192</v>
+        <v>1.044296861936283</v>
       </c>
       <c r="J21">
-        <v>1.011700449115627</v>
+        <v>1.012709445800844</v>
       </c>
       <c r="K21">
-        <v>1.023995747780584</v>
+        <v>1.024825431216811</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.027667241109368</v>
+        <v>1.028111798034899</v>
       </c>
       <c r="N21">
-        <v>1.007998934632113</v>
+        <v>1.011231564016644</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030469084967792</v>
+        <v>1.030820926865934</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028119903653397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028723480481557</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019185639212437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9787262591692144</v>
+        <v>0.9799661580940527</v>
       </c>
       <c r="D22">
-        <v>1.007453438372921</v>
+        <v>1.008480344875079</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.010920932656609</v>
+        <v>1.011456965547104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043244730100549</v>
+        <v>1.043764789468534</v>
       </c>
       <c r="J22">
-        <v>1.01042943167381</v>
+        <v>1.011611554187589</v>
       </c>
       <c r="K22">
-        <v>1.022878673252643</v>
+        <v>1.023885655861446</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.026279104418746</v>
+        <v>1.026804823891471</v>
       </c>
       <c r="N22">
-        <v>1.007577434602313</v>
+        <v>1.01119905251929</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02937045140625</v>
+        <v>1.029786529552536</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027316439990084</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028044081492022</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019001079117833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9801447394855909</v>
+        <v>0.9812744424310111</v>
       </c>
       <c r="D23">
-        <v>1.008366383412535</v>
+        <v>1.009288659251977</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.011984804110247</v>
+        <v>1.012471305318417</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043573401559193</v>
+        <v>1.044040776754936</v>
       </c>
       <c r="J23">
-        <v>1.011099961376487</v>
+        <v>1.01217856126586</v>
       </c>
       <c r="K23">
-        <v>1.023464887762745</v>
+        <v>1.024369722615678</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.027015119225318</v>
+        <v>1.0274925008342</v>
       </c>
       <c r="N23">
-        <v>1.007798929296414</v>
+        <v>1.011172298153698</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029952966712341</v>
+        <v>1.030330787781881</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027721202823418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028375678779998</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019095222192293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9856304579992031</v>
+        <v>0.9863935086067496</v>
       </c>
       <c r="D24">
-        <v>1.01191077877812</v>
+        <v>1.012468020655038</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.016112441823685</v>
+        <v>1.016433714412036</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044821688827757</v>
+        <v>1.045105634759791</v>
       </c>
       <c r="J24">
-        <v>1.013693096920101</v>
+        <v>1.014425580368905</v>
       </c>
       <c r="K24">
-        <v>1.02573190731412</v>
+        <v>1.026279665386028</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.029862392270172</v>
+        <v>1.030178253588277</v>
       </c>
       <c r="N24">
-        <v>1.008657110253926</v>
+        <v>1.011261705281831</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032206422389936</v>
+        <v>1.032456408321062</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029316553923377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029717797887444</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01946438216294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9917838856947502</v>
+        <v>0.9923034058639522</v>
       </c>
       <c r="D25">
-        <v>1.015897048258688</v>
+        <v>1.016155654456886</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.020775013915483</v>
+        <v>1.020983346180132</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046164331578365</v>
+        <v>1.04629946286427</v>
       </c>
       <c r="J25">
-        <v>1.016590954221178</v>
+        <v>1.017092596653391</v>
       </c>
       <c r="K25">
-        <v>1.02825349538303</v>
+        <v>1.02850824652716</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.033059162944598</v>
+        <v>1.033264426977395</v>
       </c>
       <c r="N25">
-        <v>1.009616416095727</v>
+        <v>1.011916369717617</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034736477035207</v>
+        <v>1.03489893104867</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031096589829005</v>
+        <v>1.031290350775513</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019891216066728</v>
       </c>
     </row>
   </sheetData>
